--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>341169.0433464437</v>
+        <v>338166.017517657</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>19.84960905315835</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>269.8988346296171</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -898,19 +898,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>97.66439137143007</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -949,22 +949,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>167.7240627510922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>60.78001549303689</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1144,10 +1144,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>70.56841052357629</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>54.55340531488843</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>190.63403990934</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>394.9236224609199</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3731502167427</v>
@@ -1426,19 +1426,19 @@
         <v>217.819703146337</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.759329748162208</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T13" t="n">
         <v>243.400138899798</v>
@@ -1609,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>384.595806150563</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>170.5804542963766</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.129242487303</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>84.52551230889576</v>
       </c>
       <c r="H15" t="n">
-        <v>41.26298946135317</v>
+        <v>41.26298946135318</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>62.71451543789636</v>
+        <v>62.71451543789637</v>
       </c>
       <c r="T15" t="n">
         <v>128.8537753079323</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>29.11237900186442</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T16" t="n">
         <v>243.400138899798</v>
@@ -1846,22 +1846,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>107.4748855846993</v>
+        <v>415.3899605391056</v>
       </c>
       <c r="G17" t="n">
         <v>396.6360551287875</v>
       </c>
       <c r="H17" t="n">
-        <v>278.5804674177816</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>65.77490965284487</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>214.5930693988131</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5702558214188</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>84.13113166820349</v>
       </c>
       <c r="H18" t="n">
-        <v>37.45410274729895</v>
+        <v>37.45410274729894</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>55.38906801100279</v>
+        <v>55.38906801100278</v>
       </c>
       <c r="T18" t="n">
         <v>127.2641445675981</v>
@@ -2022,7 +2022,7 @@
         <v>135.5208179446802</v>
       </c>
       <c r="I19" t="n">
-        <v>58.44163079333698</v>
+        <v>52.32042844750993</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.121202345827596</v>
       </c>
       <c r="S19" t="n">
         <v>151.8032132255307</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>125.3081979014149</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>396.6360551287875</v>
+        <v>93.25714476440936</v>
       </c>
       <c r="H20" t="n">
         <v>278.5804674177816</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>65.77490965284487</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>214.5930693988131</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5702558214188</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2177,7 +2177,7 @@
         <v>84.13113166820349</v>
       </c>
       <c r="H21" t="n">
-        <v>37.45410274729895</v>
+        <v>37.45410274729894</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>55.38906801100279</v>
+        <v>55.38906801100278</v>
       </c>
       <c r="T21" t="n">
         <v>127.2641445675981</v>
@@ -2259,7 +2259,7 @@
         <v>135.5208179446802</v>
       </c>
       <c r="I22" t="n">
-        <v>52.32042844750993</v>
+        <v>58.44163079333743</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.121202345827616</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>151.8032132255307</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>65.77490965284487</v>
+        <v>65.77490965284485</v>
       </c>
       <c r="T23" t="n">
         <v>214.5930693988131</v>
@@ -2414,7 +2414,7 @@
         <v>84.13113166820349</v>
       </c>
       <c r="H24" t="n">
-        <v>37.45410274729895</v>
+        <v>37.45410274729894</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>55.38906801100279</v>
+        <v>55.38906801100278</v>
       </c>
       <c r="T24" t="n">
         <v>127.2641445675981</v>
@@ -2496,7 +2496,7 @@
         <v>135.5208179446802</v>
       </c>
       <c r="I25" t="n">
-        <v>58.44163079333671</v>
+        <v>77.68586207552877</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>151.8032132255307</v>
+        <v>132.558981943339</v>
       </c>
       <c r="T25" t="n">
         <v>241.9874236625757</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>65.77490965284487</v>
+        <v>65.77490965284485</v>
       </c>
       <c r="T26" t="n">
         <v>214.5930693988131</v>
@@ -2651,7 +2651,7 @@
         <v>84.13113166820349</v>
       </c>
       <c r="H27" t="n">
-        <v>37.45410274729895</v>
+        <v>37.45410274729894</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>55.38906801100279</v>
+        <v>55.38906801100278</v>
       </c>
       <c r="T27" t="n">
         <v>127.2641445675981</v>
@@ -2730,10 +2730,10 @@
         <v>163.5999258150202</v>
       </c>
       <c r="H28" t="n">
-        <v>116.2765866624881</v>
+        <v>135.5208179446802</v>
       </c>
       <c r="I28" t="n">
-        <v>77.68586207552879</v>
+        <v>58.44163079333715</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>65.77490965284487</v>
+        <v>65.77490965284485</v>
       </c>
       <c r="T29" t="n">
         <v>214.5930693988131</v>
@@ -2888,7 +2888,7 @@
         <v>84.13113166820349</v>
       </c>
       <c r="H30" t="n">
-        <v>37.45410274729895</v>
+        <v>37.45410274729894</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>55.38906801100279</v>
+        <v>55.38906801100278</v>
       </c>
       <c r="T30" t="n">
         <v>127.2641445675981</v>
@@ -2967,10 +2967,10 @@
         <v>163.5999258150202</v>
       </c>
       <c r="H31" t="n">
-        <v>116.2765866624881</v>
+        <v>135.5208179446802</v>
       </c>
       <c r="I31" t="n">
-        <v>77.68586207552879</v>
+        <v>58.44163079333715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>396.6360551287875</v>
+        <v>396.6360551287883</v>
       </c>
       <c r="H32" t="n">
         <v>278.5804674177816</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>65.77490965284599</v>
+        <v>65.77490965284485</v>
       </c>
       <c r="T32" t="n">
         <v>214.5930693988131</v>
@@ -3125,7 +3125,7 @@
         <v>84.13113166820349</v>
       </c>
       <c r="H33" t="n">
-        <v>37.45410274729895</v>
+        <v>37.45410274729894</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>55.38906801100279</v>
+        <v>55.38906801100278</v>
       </c>
       <c r="T33" t="n">
         <v>127.2641445675981</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>145.4706607735882</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3204,10 +3204,10 @@
         <v>163.5999258150202</v>
       </c>
       <c r="H34" t="n">
-        <v>135.5208179446802</v>
+        <v>116.2765866624886</v>
       </c>
       <c r="I34" t="n">
-        <v>77.68586207552879</v>
+        <v>77.68586207552877</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.121202345827616</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>151.8032132255307</v>
@@ -3283,7 +3283,7 @@
         <v>396.6360551287875</v>
       </c>
       <c r="H35" t="n">
-        <v>278.5804674177816</v>
+        <v>273.9157149918199</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>65.77490965284487</v>
+        <v>65.77490965284485</v>
       </c>
       <c r="T35" t="n">
         <v>214.5930693988131</v>
@@ -3331,7 +3331,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>410.2862863605197</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3362,7 +3362,7 @@
         <v>84.13113166820349</v>
       </c>
       <c r="H36" t="n">
-        <v>37.45410274729895</v>
+        <v>37.45410274729894</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>55.38906801100279</v>
+        <v>55.38906801100278</v>
       </c>
       <c r="T36" t="n">
         <v>127.2641445675981</v>
@@ -3444,7 +3444,7 @@
         <v>135.5208179446802</v>
       </c>
       <c r="I37" t="n">
-        <v>77.68586207552879</v>
+        <v>58.44163079333806</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>132.558981943339</v>
+        <v>151.8032132255307</v>
       </c>
       <c r="T37" t="n">
         <v>241.9874236625757</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>61.11015722688251</v>
+        <v>65.77490965284485</v>
       </c>
       <c r="T38" t="n">
-        <v>214.5930693988131</v>
+        <v>209.9283169728516</v>
       </c>
       <c r="U38" t="n">
         <v>256.5702558214188</v>
@@ -3599,7 +3599,7 @@
         <v>84.13113166820349</v>
       </c>
       <c r="H39" t="n">
-        <v>37.45410274729895</v>
+        <v>37.45410274729894</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>55.38906801100279</v>
+        <v>55.38906801100278</v>
       </c>
       <c r="T39" t="n">
         <v>127.2641445675981</v>
@@ -3678,10 +3678,10 @@
         <v>163.5999258150202</v>
       </c>
       <c r="H40" t="n">
-        <v>135.5208179446802</v>
+        <v>116.2765866624895</v>
       </c>
       <c r="I40" t="n">
-        <v>77.68586207552879</v>
+        <v>77.68586207552877</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>132.558981943339</v>
+        <v>151.8032132255307</v>
       </c>
       <c r="T40" t="n">
         <v>241.9874236625757</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>107.8391247127072</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>65.77490965284485</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.5930693988131</v>
       </c>
       <c r="U41" t="n">
-        <v>211.0163114973732</v>
+        <v>256.5702558214188</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3836,7 +3836,7 @@
         <v>84.13113166820349</v>
       </c>
       <c r="H42" t="n">
-        <v>37.45410274729895</v>
+        <v>37.45410274729894</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>55.38906801100279</v>
+        <v>55.38906801100278</v>
       </c>
       <c r="T42" t="n">
         <v>127.2641445675981</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>155.6957522156696</v>
       </c>
       <c r="G43" t="n">
         <v>163.5999258150202</v>
       </c>
       <c r="H43" t="n">
-        <v>116.2765866624885</v>
+        <v>135.5208179446802</v>
       </c>
       <c r="I43" t="n">
-        <v>77.68586207552879</v>
+        <v>77.68586207552877</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>107.8391247127072</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>70.71413175308184</v>
+        <v>396.6360551287875</v>
       </c>
       <c r="H44" t="n">
         <v>278.5804674177816</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>65.77490965284487</v>
+        <v>65.77490965284485</v>
       </c>
       <c r="T44" t="n">
         <v>214.5930693988131</v>
@@ -4073,7 +4073,7 @@
         <v>84.13113166820349</v>
       </c>
       <c r="H45" t="n">
-        <v>37.45410274729895</v>
+        <v>37.45410274729894</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>55.38906801100279</v>
+        <v>55.38906801100278</v>
       </c>
       <c r="T45" t="n">
         <v>127.2641445675981</v>
@@ -4152,10 +4152,10 @@
         <v>163.5999258150202</v>
       </c>
       <c r="H46" t="n">
-        <v>110.155384316661</v>
+        <v>135.5208179446802</v>
       </c>
       <c r="I46" t="n">
-        <v>77.68586207552879</v>
+        <v>52.32042844750956</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.121202345827616</v>
+        <v>6.121202345827596</v>
       </c>
       <c r="S46" t="n">
         <v>151.8032132255307</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1053.715718759311</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="C2" t="n">
-        <v>615.573245942734</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="D2" t="n">
-        <v>615.573245942734</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E2" t="n">
-        <v>615.573245942734</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F2" t="n">
-        <v>615.573245942734</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4333,22 +4333,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
         <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="O2" t="n">
         <v>1810.336013065103</v>
       </c>
-      <c r="N2" t="n">
-        <v>2471.176067606882</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2471.176067606882</v>
-      </c>
       <c r="P2" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
         <v>2500.906761678371</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.443876365254</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>2307.443876365254</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1888.301412944565</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1480.015289244218</v>
+        <v>1224.223655672615</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>743.9292024621484</v>
+        <v>1740.966918709668</v>
       </c>
       <c r="C5" t="n">
-        <v>743.9292024621484</v>
+        <v>1302.824445893091</v>
       </c>
       <c r="D5" t="n">
-        <v>743.9292024621484</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E5" t="n">
-        <v>743.9292024621484</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
         <v>342.5313710854123</v>
@@ -4567,19 +4567,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4597,22 +4597,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739146</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.64701815018</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="X5" t="n">
-        <v>1339.64701815018</v>
+        <v>2167.266489194576</v>
       </c>
       <c r="Y5" t="n">
-        <v>1170.228772947056</v>
+        <v>2167.266489194576</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4713,13 +4713,13 @@
         <v>254.6973458817257</v>
       </c>
       <c r="F7" t="n">
-        <v>254.6973458817257</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G7" t="n">
-        <v>254.6973458817257</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>114.7951715721002</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1361.228219012466</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>923.0857461958889</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>487.1759613703334</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>53.40121652862856</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
         <v>53.40121652862856</v>
@@ -4810,13 +4810,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2598.779603680341</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2598.779603680341</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2598.779603680341</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2598.779603680341</v>
       </c>
       <c r="W8" t="n">
-        <v>2614.956376618409</v>
+        <v>2598.779603680341</v>
       </c>
       <c r="X8" t="n">
-        <v>2195.81391319772</v>
+        <v>2598.779603680341</v>
       </c>
       <c r="Y8" t="n">
-        <v>1787.527789497373</v>
+        <v>2190.493479979994</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
         <v>53.40121652862856</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>743.9038344408982</v>
+        <v>2008.826486808792</v>
       </c>
       <c r="C11" t="n">
-        <v>743.9038344408982</v>
+        <v>1570.684013992216</v>
       </c>
       <c r="D11" t="n">
-        <v>743.9038344408982</v>
+        <v>1171.77126403169</v>
       </c>
       <c r="E11" t="n">
-        <v>743.9038344408982</v>
+        <v>1171.77126403169</v>
       </c>
       <c r="F11" t="n">
         <v>743.9038344408982</v>
@@ -5035,10 +5035,10 @@
         <v>342.516814019946</v>
       </c>
       <c r="H11" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="I11" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="J11" t="n">
         <v>489.6513714049352</v>
@@ -5047,19 +5047,19 @@
         <v>1151.68141381048</v>
       </c>
       <c r="L11" t="n">
-        <v>1289.83969920455</v>
+        <v>1153.353513322245</v>
       </c>
       <c r="M11" t="n">
-        <v>1291.700232090473</v>
+        <v>1155.214046208169</v>
       </c>
       <c r="N11" t="n">
-        <v>1293.590870343618</v>
+        <v>1157.104684461313</v>
       </c>
       <c r="O11" t="n">
         <v>1295.376146433873</v>
       </c>
       <c r="P11" t="n">
-        <v>1957.406188839418</v>
+        <v>1957.406188839417</v>
       </c>
       <c r="Q11" t="n">
         <v>2505.049203913556</v>
@@ -5068,25 +5068,25 @@
         <v>2674.86885820422</v>
       </c>
       <c r="S11" t="n">
-        <v>2591.463339042984</v>
+        <v>2591.463339042983</v>
       </c>
       <c r="T11" t="n">
         <v>2371.443436874966</v>
       </c>
       <c r="U11" t="n">
-        <v>2112.221999068446</v>
+        <v>2371.443436874966</v>
       </c>
       <c r="V11" t="n">
-        <v>1749.605049002272</v>
+        <v>2008.826486808792</v>
       </c>
       <c r="W11" t="n">
-        <v>1344.749594413305</v>
+        <v>2008.826486808792</v>
       </c>
       <c r="X11" t="n">
-        <v>1344.749594413305</v>
+        <v>2008.826486808792</v>
       </c>
       <c r="Y11" t="n">
-        <v>936.4634707129588</v>
+        <v>2008.826486808792</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>95.17716449878458</v>
       </c>
       <c r="H12" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="I12" t="n">
-        <v>79.75624203114305</v>
+        <v>79.75624203114302</v>
       </c>
       <c r="J12" t="n">
         <v>404.85018795938</v>
       </c>
       <c r="K12" t="n">
-        <v>1066.880230364924</v>
+        <v>405.7656494959317</v>
       </c>
       <c r="L12" t="n">
-        <v>1592.953521037943</v>
+        <v>406.9966005067959</v>
       </c>
       <c r="M12" t="n">
-        <v>1594.389982807413</v>
+        <v>408.4330622762662</v>
       </c>
       <c r="N12" t="n">
-        <v>1595.864463445596</v>
+        <v>1070.46310468181</v>
       </c>
       <c r="O12" t="n">
-        <v>1597.213325166358</v>
+        <v>1071.811966402573</v>
       </c>
       <c r="P12" t="n">
-        <v>1598.29590561502</v>
+        <v>1072.894546851235</v>
       </c>
       <c r="Q12" t="n">
         <v>1599.019581975392</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>903.9885648184314</v>
+        <v>903.9885648184313</v>
       </c>
       <c r="C13" t="n">
-        <v>731.4268533016564</v>
+        <v>731.4268533016563</v>
       </c>
       <c r="D13" t="n">
-        <v>565.5488605031791</v>
+        <v>565.548860503179</v>
       </c>
       <c r="E13" t="n">
         <v>395.7908567539163</v>
@@ -5190,22 +5190,22 @@
         <v>219.0838027156725</v>
       </c>
       <c r="G13" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="H13" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="I13" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="J13" t="n">
         <v>140.4130937073626</v>
       </c>
       <c r="K13" t="n">
-        <v>415.7237510582796</v>
+        <v>415.7237510582793</v>
       </c>
       <c r="L13" t="n">
-        <v>834.6402622675976</v>
+        <v>834.6402622675973</v>
       </c>
       <c r="M13" t="n">
         <v>1294.869171117663</v>
@@ -5214,16 +5214,16 @@
         <v>1737.855300518818</v>
       </c>
       <c r="O13" t="n">
-        <v>2158.196353251645</v>
+        <v>2158.196353251644</v>
       </c>
       <c r="P13" t="n">
-        <v>2506.278091179906</v>
+        <v>2506.278091179905</v>
       </c>
       <c r="Q13" t="n">
         <v>2674.86885820422</v>
       </c>
       <c r="R13" t="n">
-        <v>2653.669084583243</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="S13" t="n">
         <v>2651.891983827523</v>
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>653.6682959431358</v>
+        <v>2028.549385551295</v>
       </c>
       <c r="C14" t="n">
-        <v>653.6682959431358</v>
+        <v>1640.068773277999</v>
       </c>
       <c r="D14" t="n">
-        <v>653.6682959431358</v>
+        <v>1204.158988452443</v>
       </c>
       <c r="E14" t="n">
-        <v>653.6682959431358</v>
+        <v>770.3842436107383</v>
       </c>
       <c r="F14" t="n">
-        <v>225.8008663523436</v>
+        <v>342.516814019946</v>
       </c>
       <c r="G14" t="n">
-        <v>53.4973771640844</v>
+        <v>342.516814019946</v>
       </c>
       <c r="H14" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="I14" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="J14" t="n">
-        <v>489.6513714049352</v>
+        <v>489.6513714049351</v>
       </c>
       <c r="K14" t="n">
-        <v>1151.68141381048</v>
+        <v>1151.681413810479</v>
       </c>
       <c r="L14" t="n">
-        <v>1289.83969920455</v>
+        <v>1153.353513322245</v>
       </c>
       <c r="M14" t="n">
-        <v>1291.700232090473</v>
+        <v>1155.214046208168</v>
       </c>
       <c r="N14" t="n">
-        <v>1293.590870343618</v>
+        <v>1157.104684461312</v>
       </c>
       <c r="O14" t="n">
         <v>1295.376146433873</v>
       </c>
       <c r="P14" t="n">
-        <v>1957.406188839418</v>
+        <v>1957.406188839417</v>
       </c>
       <c r="Q14" t="n">
         <v>2505.049203913556</v>
@@ -5308,22 +5308,22 @@
         <v>2674.86885820422</v>
       </c>
       <c r="T14" t="n">
-        <v>2674.86885820422</v>
+        <v>2454.848956036202</v>
       </c>
       <c r="U14" t="n">
-        <v>2674.86885820422</v>
+        <v>2454.848956036202</v>
       </c>
       <c r="V14" t="n">
-        <v>2312.251908138046</v>
+        <v>2454.848956036202</v>
       </c>
       <c r="W14" t="n">
-        <v>1907.39645354908</v>
+        <v>2454.848956036202</v>
       </c>
       <c r="X14" t="n">
-        <v>1488.25399012839</v>
+        <v>2454.848956036202</v>
       </c>
       <c r="Y14" t="n">
-        <v>1079.967866428044</v>
+        <v>2454.848956036202</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>95.17716449878458</v>
       </c>
       <c r="H15" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="I15" t="n">
-        <v>79.75624203114305</v>
+        <v>79.756242031143</v>
       </c>
       <c r="J15" t="n">
-        <v>80.29186299316764</v>
+        <v>404.8501879593799</v>
       </c>
       <c r="K15" t="n">
-        <v>742.3219053987121</v>
+        <v>1066.880230364924</v>
       </c>
       <c r="L15" t="n">
-        <v>1404.351947804257</v>
+        <v>1592.953521037943</v>
       </c>
       <c r="M15" t="n">
         <v>1594.389982807413</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>767.80858270307</v>
+        <v>903.9885648184313</v>
       </c>
       <c r="C16" t="n">
-        <v>595.2468711862949</v>
+        <v>731.4268533016563</v>
       </c>
       <c r="D16" t="n">
-        <v>429.3688783878176</v>
+        <v>565.548860503179</v>
       </c>
       <c r="E16" t="n">
-        <v>259.6108746385549</v>
+        <v>395.7908567539163</v>
       </c>
       <c r="F16" t="n">
-        <v>82.90382060031109</v>
+        <v>219.0838027156725</v>
       </c>
       <c r="G16" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="H16" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="I16" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="J16" t="n">
         <v>140.4130937073626</v>
       </c>
       <c r="K16" t="n">
-        <v>415.7237510582795</v>
+        <v>415.7237510582794</v>
       </c>
       <c r="L16" t="n">
-        <v>834.6402622675977</v>
+        <v>834.6402622675974</v>
       </c>
       <c r="M16" t="n">
         <v>1294.869171117663</v>
@@ -5451,10 +5451,10 @@
         <v>1737.855300518818</v>
       </c>
       <c r="O16" t="n">
-        <v>2158.196353251645</v>
+        <v>2158.196353251644</v>
       </c>
       <c r="P16" t="n">
-        <v>2506.278091179906</v>
+        <v>2506.278091179905</v>
       </c>
       <c r="Q16" t="n">
         <v>2674.86885820422</v>
@@ -5463,25 +5463,25 @@
         <v>2674.86885820422</v>
       </c>
       <c r="S16" t="n">
-        <v>2515.712001712162</v>
+        <v>2651.891983827523</v>
       </c>
       <c r="T16" t="n">
-        <v>2269.85327555075</v>
+        <v>2406.033257666111</v>
       </c>
       <c r="U16" t="n">
-        <v>1991.420539317814</v>
+        <v>2127.600521433176</v>
       </c>
       <c r="V16" t="n">
-        <v>1704.465031188245</v>
+        <v>1840.645013303606</v>
       </c>
       <c r="W16" t="n">
-        <v>1432.438626774536</v>
+        <v>1568.618608889898</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.046872107949</v>
+        <v>1323.22685422331</v>
       </c>
       <c r="Y16" t="n">
-        <v>959.6272014220572</v>
+        <v>1095.807183537418</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>850.7172528470754</v>
+        <v>1752.265387209018</v>
       </c>
       <c r="C17" t="n">
-        <v>850.7172528470754</v>
+        <v>1314.122914392442</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7172528470754</v>
+        <v>1314.122914392442</v>
       </c>
       <c r="E17" t="n">
-        <v>850.7172528470754</v>
+        <v>880.3481695507367</v>
       </c>
       <c r="F17" t="n">
-        <v>742.1567623574801</v>
+        <v>460.7623508243674</v>
       </c>
       <c r="G17" t="n">
-        <v>341.514282429412</v>
+        <v>60.11987089629923</v>
       </c>
       <c r="H17" t="n">
         <v>60.11987089629923</v>
       </c>
       <c r="I17" t="n">
-        <v>88.25256069090867</v>
+        <v>88.25256069090871</v>
       </c>
       <c r="J17" t="n">
-        <v>586.3409789108849</v>
+        <v>586.340978910885</v>
       </c>
       <c r="K17" t="n">
-        <v>1085.406534951901</v>
+        <v>680.5124533662993</v>
       </c>
       <c r="L17" t="n">
-        <v>1202.234576225234</v>
+        <v>797.3404946396324</v>
       </c>
       <c r="M17" t="n">
-        <v>1332.228282495444</v>
+        <v>927.3342009098426</v>
       </c>
       <c r="N17" t="n">
-        <v>1464.325422837342</v>
+        <v>1059.43134125174</v>
       </c>
       <c r="O17" t="n">
-        <v>1589.061006628304</v>
+        <v>1419.906941875248</v>
       </c>
       <c r="P17" t="n">
-        <v>2333.044408970007</v>
+        <v>2163.890344216951</v>
       </c>
       <c r="Q17" t="n">
-        <v>2959.489421451775</v>
+        <v>2790.335356698718</v>
       </c>
       <c r="R17" t="n">
-        <v>3005.993544814961</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="S17" t="n">
-        <v>2939.55424213532</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="T17" t="n">
-        <v>2722.793565974903</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="U17" t="n">
-        <v>2463.631691407813</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="V17" t="n">
-        <v>2101.014741341639</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="W17" t="n">
-        <v>1696.159286752673</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="X17" t="n">
-        <v>1277.016823331983</v>
+        <v>2586.851081394273</v>
       </c>
       <c r="Y17" t="n">
-        <v>1277.016823331983</v>
+        <v>2178.564957693926</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>60.11987089629923</v>
       </c>
       <c r="I18" t="n">
-        <v>99.82140747011191</v>
+        <v>99.82140747011195</v>
       </c>
       <c r="J18" t="n">
-        <v>453.5868405887737</v>
+        <v>461.8030720270354</v>
       </c>
       <c r="K18" t="n">
-        <v>517.5492886511297</v>
+        <v>525.7655200893915</v>
       </c>
       <c r="L18" t="n">
-        <v>603.5546935273265</v>
+        <v>611.7709249655883</v>
       </c>
       <c r="M18" t="n">
-        <v>703.9189444049728</v>
+        <v>712.1351758432348</v>
       </c>
       <c r="N18" t="n">
-        <v>806.9395383602014</v>
+        <v>815.1557697984636</v>
       </c>
       <c r="O18" t="n">
-        <v>901.1832551225293</v>
+        <v>909.3994865607915</v>
       </c>
       <c r="P18" t="n">
-        <v>976.8221464971349</v>
+        <v>985.0383779353973</v>
       </c>
       <c r="Q18" t="n">
         <v>1568.123680897655</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1106.198748709197</v>
+        <v>1100.015716036644</v>
       </c>
       <c r="C19" t="n">
-        <v>933.6370371924219</v>
+        <v>927.4540045198693</v>
       </c>
       <c r="D19" t="n">
-        <v>767.7590443939446</v>
+        <v>761.576011721392</v>
       </c>
       <c r="E19" t="n">
-        <v>598.0010406446818</v>
+        <v>591.8180079721292</v>
       </c>
       <c r="F19" t="n">
-        <v>421.293986606438</v>
+        <v>415.1109539338854</v>
       </c>
       <c r="G19" t="n">
-        <v>256.0415362882358</v>
+        <v>249.8585036156832</v>
       </c>
       <c r="H19" t="n">
-        <v>119.1518211925992</v>
+        <v>112.9687885200466</v>
       </c>
       <c r="I19" t="n">
         <v>60.11987089629923</v>
@@ -5676,13 +5676,13 @@
         <v>170.177756664853</v>
       </c>
       <c r="K19" t="n">
-        <v>483.5181070463757</v>
+        <v>483.5181070463756</v>
       </c>
       <c r="L19" t="n">
-        <v>951.0995321698197</v>
+        <v>951.0995321698196</v>
       </c>
       <c r="M19" t="n">
-        <v>1462.638769417909</v>
+        <v>1462.638769417908</v>
       </c>
       <c r="N19" t="n">
         <v>1955.715182292005</v>
@@ -5694,31 +5694,31 @@
         <v>2809.993427046914</v>
       </c>
       <c r="Q19" t="n">
-        <v>3005.993544814961</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="R19" t="n">
-        <v>3005.993544814961</v>
+        <v>2999.810512142409</v>
       </c>
       <c r="S19" t="n">
-        <v>2852.656965799274</v>
+        <v>2846.473933126721</v>
       </c>
       <c r="T19" t="n">
-        <v>2608.225224725965</v>
+        <v>2602.042192053412</v>
       </c>
       <c r="U19" t="n">
-        <v>2329.810705323941</v>
+        <v>2323.627672651389</v>
       </c>
       <c r="V19" t="n">
-        <v>2042.855197194372</v>
+        <v>2036.672164521819</v>
       </c>
       <c r="W19" t="n">
-        <v>1770.828792780663</v>
+        <v>1764.645760108111</v>
       </c>
       <c r="X19" t="n">
-        <v>1525.437038114076</v>
+        <v>1519.254005441523</v>
       </c>
       <c r="Y19" t="n">
-        <v>1298.017367428184</v>
+        <v>1291.834334755632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>742.1567623574801</v>
+        <v>2171.407850629707</v>
       </c>
       <c r="C20" t="n">
-        <v>742.1567623574801</v>
+        <v>1733.265377813131</v>
       </c>
       <c r="D20" t="n">
-        <v>742.1567623574801</v>
+        <v>1297.355592987575</v>
       </c>
       <c r="E20" t="n">
-        <v>742.1567623574801</v>
+        <v>863.5808481458703</v>
       </c>
       <c r="F20" t="n">
-        <v>742.1567623574801</v>
+        <v>435.713418555078</v>
       </c>
       <c r="G20" t="n">
         <v>341.514282429412</v>
@@ -5749,55 +5749,55 @@
         <v>60.11987089629923</v>
       </c>
       <c r="I20" t="n">
-        <v>88.25256069090867</v>
+        <v>88.25256069090871</v>
       </c>
       <c r="J20" t="n">
-        <v>586.3409789108849</v>
+        <v>586.340978910885</v>
       </c>
       <c r="K20" t="n">
-        <v>916.2524701988442</v>
+        <v>1330.324381252588</v>
       </c>
       <c r="L20" t="n">
-        <v>1033.080511472177</v>
+        <v>1447.152422525921</v>
       </c>
       <c r="M20" t="n">
-        <v>1163.074217742387</v>
+        <v>1577.146128796132</v>
       </c>
       <c r="N20" t="n">
-        <v>1295.171358084285</v>
+        <v>1709.24326913803</v>
       </c>
       <c r="O20" t="n">
-        <v>1419.906941875248</v>
+        <v>1833.978852928992</v>
       </c>
       <c r="P20" t="n">
-        <v>2163.890344216951</v>
+        <v>2333.044408970008</v>
       </c>
       <c r="Q20" t="n">
-        <v>2790.335356698718</v>
+        <v>2959.489421451775</v>
       </c>
       <c r="R20" t="n">
         <v>3005.993544814962</v>
       </c>
       <c r="S20" t="n">
-        <v>2939.55424213532</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="T20" t="n">
-        <v>2722.793565974903</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="U20" t="n">
-        <v>2463.631691407813</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="V20" t="n">
-        <v>2101.014741341639</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="W20" t="n">
-        <v>1696.159286752673</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="X20" t="n">
-        <v>1277.016823331983</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="Y20" t="n">
-        <v>868.7306996316366</v>
+        <v>2597.707421114615</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>182.9332389927663</v>
       </c>
       <c r="G21" t="n">
-        <v>97.95229791377292</v>
+        <v>97.95229791377291</v>
       </c>
       <c r="H21" t="n">
         <v>60.11987089629923</v>
       </c>
       <c r="I21" t="n">
-        <v>99.82140747011192</v>
+        <v>99.82140747011195</v>
       </c>
       <c r="J21" t="n">
-        <v>453.586840588774</v>
+        <v>453.586840588773</v>
       </c>
       <c r="K21" t="n">
-        <v>517.5492886511299</v>
+        <v>517.549288651129</v>
       </c>
       <c r="L21" t="n">
-        <v>603.5546935273268</v>
+        <v>603.554693527326</v>
       </c>
       <c r="M21" t="n">
-        <v>703.918944404973</v>
+        <v>703.9189444049724</v>
       </c>
       <c r="N21" t="n">
-        <v>806.9395383602016</v>
+        <v>806.9395383602011</v>
       </c>
       <c r="O21" t="n">
-        <v>901.1832551225295</v>
+        <v>901.1832551225292</v>
       </c>
       <c r="P21" t="n">
-        <v>976.8221464971351</v>
+        <v>976.8221464971349</v>
       </c>
       <c r="Q21" t="n">
         <v>1568.123680897655</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1100.015716036644</v>
+        <v>1106.198748709197</v>
       </c>
       <c r="C22" t="n">
-        <v>927.4540045198693</v>
+        <v>933.6370371924223</v>
       </c>
       <c r="D22" t="n">
-        <v>761.576011721392</v>
+        <v>767.759044393945</v>
       </c>
       <c r="E22" t="n">
-        <v>591.8180079721292</v>
+        <v>598.0010406446822</v>
       </c>
       <c r="F22" t="n">
-        <v>415.1109539338854</v>
+        <v>421.2939866064385</v>
       </c>
       <c r="G22" t="n">
-        <v>249.8585036156832</v>
+        <v>256.0415362882362</v>
       </c>
       <c r="H22" t="n">
-        <v>112.9687885200466</v>
+        <v>119.1518211925997</v>
       </c>
       <c r="I22" t="n">
         <v>60.11987089629923</v>
@@ -5913,16 +5913,16 @@
         <v>170.177756664853</v>
       </c>
       <c r="K22" t="n">
-        <v>483.5181070463757</v>
+        <v>483.5181070463758</v>
       </c>
       <c r="L22" t="n">
-        <v>951.0995321698197</v>
+        <v>951.0995321698198</v>
       </c>
       <c r="M22" t="n">
-        <v>1462.638769417908</v>
+        <v>1462.638769417909</v>
       </c>
       <c r="N22" t="n">
-        <v>1955.715182292004</v>
+        <v>1955.715182292005</v>
       </c>
       <c r="O22" t="n">
         <v>2422.322719159406</v>
@@ -5934,28 +5934,28 @@
         <v>3005.993544814962</v>
       </c>
       <c r="R22" t="n">
-        <v>2999.810512142409</v>
+        <v>3005.993544814962</v>
       </c>
       <c r="S22" t="n">
-        <v>2846.473933126721</v>
+        <v>2852.656965799274</v>
       </c>
       <c r="T22" t="n">
-        <v>2602.042192053412</v>
+        <v>2608.225224725965</v>
       </c>
       <c r="U22" t="n">
-        <v>2323.627672651389</v>
+        <v>2329.810705323942</v>
       </c>
       <c r="V22" t="n">
-        <v>2036.672164521819</v>
+        <v>2042.855197194372</v>
       </c>
       <c r="W22" t="n">
-        <v>1764.645760108111</v>
+        <v>1770.828792780664</v>
       </c>
       <c r="X22" t="n">
-        <v>1519.254005441523</v>
+        <v>1525.437038114076</v>
       </c>
       <c r="Y22" t="n">
-        <v>1291.834334755632</v>
+        <v>1298.017367428185</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2519.390379437933</v>
+        <v>2519.390379437934</v>
       </c>
       <c r="C23" t="n">
-        <v>2081.247906621357</v>
+        <v>2081.247906621358</v>
       </c>
       <c r="D23" t="n">
-        <v>1645.338121795801</v>
+        <v>1645.338121795802</v>
       </c>
       <c r="E23" t="n">
-        <v>1211.563376954096</v>
+        <v>1211.563376954097</v>
       </c>
       <c r="F23" t="n">
-        <v>783.6959473633042</v>
+        <v>783.6959473633055</v>
       </c>
       <c r="G23" t="n">
-        <v>383.0534674352361</v>
+        <v>383.0534674352364</v>
       </c>
       <c r="H23" t="n">
         <v>101.6590559021233</v>
@@ -5989,52 +5989,52 @@
         <v>129.7917456967328</v>
       </c>
       <c r="J23" t="n">
-        <v>627.880163916709</v>
+        <v>627.8801639167091</v>
       </c>
       <c r="K23" t="n">
         <v>1556.401930330301</v>
       </c>
       <c r="L23" t="n">
-        <v>1673.229971603634</v>
+        <v>1673.229971603635</v>
       </c>
       <c r="M23" t="n">
-        <v>1803.223677873844</v>
+        <v>1803.223677873845</v>
       </c>
       <c r="N23" t="n">
         <v>2201.165534407628</v>
       </c>
       <c r="O23" t="n">
-        <v>3306.080784768896</v>
+        <v>3306.080784768897</v>
       </c>
       <c r="P23" t="n">
-        <v>4240.849594508155</v>
+        <v>4240.849594508156</v>
       </c>
       <c r="Q23" t="n">
-        <v>4867.294606989923</v>
+        <v>4867.294606989924</v>
       </c>
       <c r="R23" t="n">
-        <v>5082.952795106165</v>
+        <v>5082.952795106166</v>
       </c>
       <c r="S23" t="n">
-        <v>5016.513492426524</v>
+        <v>5016.513492426525</v>
       </c>
       <c r="T23" t="n">
-        <v>4799.752816266106</v>
+        <v>4799.752816266108</v>
       </c>
       <c r="U23" t="n">
-        <v>4540.590941699017</v>
+        <v>4540.590941699018</v>
       </c>
       <c r="V23" t="n">
         <v>4177.973991632844</v>
       </c>
       <c r="W23" t="n">
-        <v>3773.118537043877</v>
+        <v>3773.118537043878</v>
       </c>
       <c r="X23" t="n">
-        <v>3353.976073623188</v>
+        <v>3353.976073623189</v>
       </c>
       <c r="Y23" t="n">
-        <v>2945.689949922841</v>
+        <v>2945.689949922842</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>141.360592475936</v>
       </c>
       <c r="J24" t="n">
-        <v>495.1260255945978</v>
+        <v>503.3422570328595</v>
       </c>
       <c r="K24" t="n">
-        <v>559.0884736569539</v>
+        <v>567.3047050952157</v>
       </c>
       <c r="L24" t="n">
-        <v>645.0938785331506</v>
+        <v>653.3101099714124</v>
       </c>
       <c r="M24" t="n">
-        <v>745.4581294107969</v>
+        <v>753.674360849059</v>
       </c>
       <c r="N24" t="n">
-        <v>848.4787233660255</v>
+        <v>856.6949548042876</v>
       </c>
       <c r="O24" t="n">
-        <v>942.7224401283535</v>
+        <v>950.9386715666157</v>
       </c>
       <c r="P24" t="n">
-        <v>1018.361331502959</v>
+        <v>1026.577562941221</v>
       </c>
       <c r="Q24" t="n">
         <v>1609.662865903479</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1147.737933715021</v>
+        <v>1167.17655117178</v>
       </c>
       <c r="C25" t="n">
-        <v>975.1762221982457</v>
+        <v>994.6148396550053</v>
       </c>
       <c r="D25" t="n">
-        <v>809.2982293997684</v>
+        <v>828.736846856528</v>
       </c>
       <c r="E25" t="n">
-        <v>639.5402256505056</v>
+        <v>658.9788431072652</v>
       </c>
       <c r="F25" t="n">
-        <v>462.8331716122618</v>
+        <v>482.2717890690215</v>
       </c>
       <c r="G25" t="n">
-        <v>297.5807212940596</v>
+        <v>317.0193387508192</v>
       </c>
       <c r="H25" t="n">
-        <v>160.691006198423</v>
+        <v>180.1296236551827</v>
       </c>
       <c r="I25" t="n">
         <v>101.6590559021233</v>
@@ -6162,7 +6162,7 @@
         <v>1997.254367297828</v>
       </c>
       <c r="O25" t="n">
-        <v>2463.861904165229</v>
+        <v>2463.86190416523</v>
       </c>
       <c r="P25" t="n">
         <v>2851.532612052738</v>
@@ -6174,25 +6174,25 @@
         <v>3047.532729820785</v>
       </c>
       <c r="S25" t="n">
-        <v>2894.196150805097</v>
+        <v>2913.634768261857</v>
       </c>
       <c r="T25" t="n">
-        <v>2649.764409731788</v>
+        <v>2669.203027188548</v>
       </c>
       <c r="U25" t="n">
-        <v>2371.349890329765</v>
+        <v>2390.788507786525</v>
       </c>
       <c r="V25" t="n">
-        <v>2084.394382200196</v>
+        <v>2103.832999656956</v>
       </c>
       <c r="W25" t="n">
-        <v>1812.367977786487</v>
+        <v>1831.806595243247</v>
       </c>
       <c r="X25" t="n">
-        <v>1566.9762231199</v>
+        <v>1586.414840576659</v>
       </c>
       <c r="Y25" t="n">
-        <v>1339.556552434008</v>
+        <v>1358.995169890768</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1211.563376954097</v>
       </c>
       <c r="F26" t="n">
-        <v>783.6959473633051</v>
+        <v>783.6959473633055</v>
       </c>
       <c r="G26" t="n">
-        <v>383.0534674352361</v>
+        <v>383.0534674352366</v>
       </c>
       <c r="H26" t="n">
         <v>101.6590559021233</v>
@@ -6226,16 +6226,16 @@
         <v>129.7917456967328</v>
       </c>
       <c r="J26" t="n">
-        <v>627.880163916709</v>
+        <v>627.8801639167091</v>
       </c>
       <c r="K26" t="n">
         <v>1556.401930330301</v>
       </c>
       <c r="L26" t="n">
-        <v>1939.074687795521</v>
+        <v>1673.229971603635</v>
       </c>
       <c r="M26" t="n">
-        <v>2069.068394065731</v>
+        <v>1803.223677873845</v>
       </c>
       <c r="N26" t="n">
         <v>2201.165534407628</v>
@@ -6256,7 +6256,7 @@
         <v>5016.513492426525</v>
       </c>
       <c r="T26" t="n">
-        <v>4799.752816266107</v>
+        <v>4799.752816266108</v>
       </c>
       <c r="U26" t="n">
         <v>4540.590941699018</v>
@@ -6305,25 +6305,25 @@
         <v>141.360592475936</v>
       </c>
       <c r="J27" t="n">
-        <v>495.1260255945978</v>
+        <v>503.3422570328595</v>
       </c>
       <c r="K27" t="n">
-        <v>559.0884736569539</v>
+        <v>567.3047050952157</v>
       </c>
       <c r="L27" t="n">
-        <v>645.0938785331506</v>
+        <v>653.3101099714124</v>
       </c>
       <c r="M27" t="n">
-        <v>745.4581294107969</v>
+        <v>753.674360849059</v>
       </c>
       <c r="N27" t="n">
-        <v>848.4787233660255</v>
+        <v>856.6949548042876</v>
       </c>
       <c r="O27" t="n">
-        <v>942.7224401283535</v>
+        <v>950.9386715666157</v>
       </c>
       <c r="P27" t="n">
-        <v>1018.361331502959</v>
+        <v>1026.577562941221</v>
       </c>
       <c r="Q27" t="n">
         <v>1609.662865903479</v>
@@ -6363,22 +6363,22 @@
         <v>1147.737933715021</v>
       </c>
       <c r="C28" t="n">
-        <v>975.1762221982457</v>
+        <v>975.1762221982461</v>
       </c>
       <c r="D28" t="n">
-        <v>809.2982293997684</v>
+        <v>809.2982293997688</v>
       </c>
       <c r="E28" t="n">
-        <v>639.5402256505056</v>
+        <v>639.540225650506</v>
       </c>
       <c r="F28" t="n">
-        <v>462.8331716122618</v>
+        <v>462.8331716122623</v>
       </c>
       <c r="G28" t="n">
-        <v>297.5807212940596</v>
+        <v>297.58072129406</v>
       </c>
       <c r="H28" t="n">
-        <v>180.1296236551827</v>
+        <v>160.6910061984235</v>
       </c>
       <c r="I28" t="n">
         <v>101.6590559021233</v>
@@ -6399,7 +6399,7 @@
         <v>1997.254367297828</v>
       </c>
       <c r="O28" t="n">
-        <v>2463.861904165229</v>
+        <v>2463.86190416523</v>
       </c>
       <c r="P28" t="n">
         <v>2851.532612052738</v>
@@ -6411,10 +6411,10 @@
         <v>3047.532729820785</v>
       </c>
       <c r="S28" t="n">
-        <v>2894.196150805097</v>
+        <v>2894.196150805098</v>
       </c>
       <c r="T28" t="n">
-        <v>2649.764409731788</v>
+        <v>2649.764409731789</v>
       </c>
       <c r="U28" t="n">
         <v>2371.349890329765</v>
@@ -6423,7 +6423,7 @@
         <v>2084.394382200196</v>
       </c>
       <c r="W28" t="n">
-        <v>1812.367977786487</v>
+        <v>1812.367977786488</v>
       </c>
       <c r="X28" t="n">
         <v>1566.9762231199</v>
@@ -6451,10 +6451,10 @@
         <v>1211.563376954097</v>
       </c>
       <c r="F29" t="n">
-        <v>783.6959473633051</v>
+        <v>783.6959473633055</v>
       </c>
       <c r="G29" t="n">
-        <v>383.0534674352361</v>
+        <v>383.0534674352366</v>
       </c>
       <c r="H29" t="n">
         <v>101.6590559021233</v>
@@ -6463,19 +6463,19 @@
         <v>129.7917456967328</v>
       </c>
       <c r="J29" t="n">
-        <v>627.880163916709</v>
+        <v>627.8801639167091</v>
       </c>
       <c r="K29" t="n">
         <v>1556.401930330301</v>
       </c>
       <c r="L29" t="n">
-        <v>2748.289937856493</v>
+        <v>1673.229971603635</v>
       </c>
       <c r="M29" t="n">
-        <v>2878.283644126703</v>
+        <v>1803.223677873845</v>
       </c>
       <c r="N29" t="n">
-        <v>3010.380784468601</v>
+        <v>2201.165534407628</v>
       </c>
       <c r="O29" t="n">
         <v>3306.080784768897</v>
@@ -6493,7 +6493,7 @@
         <v>5016.513492426525</v>
       </c>
       <c r="T29" t="n">
-        <v>4799.752816266107</v>
+        <v>4799.752816266108</v>
       </c>
       <c r="U29" t="n">
         <v>4540.590941699018</v>
@@ -6542,25 +6542,25 @@
         <v>141.360592475936</v>
       </c>
       <c r="J30" t="n">
-        <v>495.1260255945978</v>
+        <v>503.3422570328595</v>
       </c>
       <c r="K30" t="n">
-        <v>559.0884736569539</v>
+        <v>567.3047050952157</v>
       </c>
       <c r="L30" t="n">
-        <v>645.0938785331506</v>
+        <v>653.3101099714124</v>
       </c>
       <c r="M30" t="n">
-        <v>745.4581294107969</v>
+        <v>753.674360849059</v>
       </c>
       <c r="N30" t="n">
-        <v>848.4787233660255</v>
+        <v>856.6949548042876</v>
       </c>
       <c r="O30" t="n">
-        <v>942.7224401283535</v>
+        <v>950.9386715666157</v>
       </c>
       <c r="P30" t="n">
-        <v>1018.361331502959</v>
+        <v>1026.577562941221</v>
       </c>
       <c r="Q30" t="n">
         <v>1609.662865903479</v>
@@ -6600,22 +6600,22 @@
         <v>1147.737933715021</v>
       </c>
       <c r="C31" t="n">
-        <v>975.1762221982457</v>
+        <v>975.1762221982461</v>
       </c>
       <c r="D31" t="n">
-        <v>809.2982293997684</v>
+        <v>809.2982293997688</v>
       </c>
       <c r="E31" t="n">
-        <v>639.5402256505056</v>
+        <v>639.540225650506</v>
       </c>
       <c r="F31" t="n">
-        <v>462.8331716122618</v>
+        <v>462.8331716122623</v>
       </c>
       <c r="G31" t="n">
-        <v>297.5807212940596</v>
+        <v>297.58072129406</v>
       </c>
       <c r="H31" t="n">
-        <v>180.1296236551827</v>
+        <v>160.6910061984235</v>
       </c>
       <c r="I31" t="n">
         <v>101.6590559021233</v>
@@ -6636,7 +6636,7 @@
         <v>1997.254367297828</v>
       </c>
       <c r="O31" t="n">
-        <v>2463.861904165229</v>
+        <v>2463.86190416523</v>
       </c>
       <c r="P31" t="n">
         <v>2851.532612052738</v>
@@ -6648,10 +6648,10 @@
         <v>3047.532729820785</v>
       </c>
       <c r="S31" t="n">
-        <v>2894.196150805097</v>
+        <v>2894.196150805098</v>
       </c>
       <c r="T31" t="n">
-        <v>2649.764409731788</v>
+        <v>2649.764409731789</v>
       </c>
       <c r="U31" t="n">
         <v>2371.349890329765</v>
@@ -6660,7 +6660,7 @@
         <v>2084.394382200196</v>
       </c>
       <c r="W31" t="n">
-        <v>1812.367977786487</v>
+        <v>1812.367977786488</v>
       </c>
       <c r="X31" t="n">
         <v>1566.9762231199</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2519.390379437933</v>
+        <v>2519.390379437934</v>
       </c>
       <c r="C32" t="n">
-        <v>2081.247906621357</v>
+        <v>2081.247906621358</v>
       </c>
       <c r="D32" t="n">
-        <v>1645.338121795801</v>
+        <v>1645.338121795802</v>
       </c>
       <c r="E32" t="n">
-        <v>1211.563376954096</v>
+        <v>1211.563376954097</v>
       </c>
       <c r="F32" t="n">
-        <v>783.6959473633042</v>
+        <v>783.6959473633051</v>
       </c>
       <c r="G32" t="n">
         <v>383.0534674352361</v>
@@ -6700,22 +6700,22 @@
         <v>129.7917456967328</v>
       </c>
       <c r="J32" t="n">
-        <v>192.6254764637911</v>
+        <v>627.8801639167091</v>
       </c>
       <c r="K32" t="n">
-        <v>916.3407450223852</v>
+        <v>1556.401930330301</v>
       </c>
       <c r="L32" t="n">
-        <v>2108.228752548578</v>
+        <v>2748.289937856494</v>
       </c>
       <c r="M32" t="n">
-        <v>2238.222458818787</v>
+        <v>2878.283644126704</v>
       </c>
       <c r="N32" t="n">
-        <v>2370.319599160685</v>
+        <v>3010.380784468602</v>
       </c>
       <c r="O32" t="n">
-        <v>3475.234849521953</v>
+        <v>4115.296034829871</v>
       </c>
       <c r="P32" t="n">
         <v>4410.003659261212</v>
@@ -6727,25 +6727,25 @@
         <v>5082.952795106166</v>
       </c>
       <c r="S32" t="n">
-        <v>5016.513492426524</v>
+        <v>5016.513492426525</v>
       </c>
       <c r="T32" t="n">
-        <v>4799.752816266106</v>
+        <v>4799.752816266107</v>
       </c>
       <c r="U32" t="n">
-        <v>4540.590941699017</v>
+        <v>4540.590941699018</v>
       </c>
       <c r="V32" t="n">
         <v>4177.973991632844</v>
       </c>
       <c r="W32" t="n">
-        <v>3773.118537043877</v>
+        <v>3773.118537043878</v>
       </c>
       <c r="X32" t="n">
-        <v>3353.976073623188</v>
+        <v>3353.976073623189</v>
       </c>
       <c r="Y32" t="n">
-        <v>2945.689949922841</v>
+        <v>2945.689949922842</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>141.360592475936</v>
       </c>
       <c r="J33" t="n">
-        <v>495.1260255945978</v>
+        <v>503.3422570328595</v>
       </c>
       <c r="K33" t="n">
-        <v>559.0884736569539</v>
+        <v>567.3047050952157</v>
       </c>
       <c r="L33" t="n">
-        <v>645.0938785331506</v>
+        <v>653.3101099714124</v>
       </c>
       <c r="M33" t="n">
-        <v>745.4581294107969</v>
+        <v>753.674360849059</v>
       </c>
       <c r="N33" t="n">
-        <v>848.4787233660255</v>
+        <v>856.6949548042876</v>
       </c>
       <c r="O33" t="n">
-        <v>942.7224401283535</v>
+        <v>950.9386715666157</v>
       </c>
       <c r="P33" t="n">
-        <v>1018.361331502959</v>
+        <v>1026.577562941221</v>
       </c>
       <c r="Q33" t="n">
         <v>1609.662865903479</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.554901042468</v>
+        <v>1147.737933715021</v>
       </c>
       <c r="C34" t="n">
-        <v>994.6148396550053</v>
+        <v>975.1762221982461</v>
       </c>
       <c r="D34" t="n">
-        <v>828.736846856528</v>
+        <v>809.2982293997688</v>
       </c>
       <c r="E34" t="n">
-        <v>658.9788431072652</v>
+        <v>639.540225650506</v>
       </c>
       <c r="F34" t="n">
-        <v>482.2717890690215</v>
+        <v>462.8331716122623</v>
       </c>
       <c r="G34" t="n">
-        <v>317.0193387508193</v>
+        <v>297.58072129406</v>
       </c>
       <c r="H34" t="n">
         <v>180.1296236551827</v>
@@ -6882,28 +6882,28 @@
         <v>3047.532729820785</v>
       </c>
       <c r="R34" t="n">
-        <v>3041.349697148232</v>
+        <v>3047.532729820785</v>
       </c>
       <c r="S34" t="n">
-        <v>2888.013118132545</v>
+        <v>2894.196150805098</v>
       </c>
       <c r="T34" t="n">
-        <v>2643.581377059236</v>
+        <v>2649.764409731789</v>
       </c>
       <c r="U34" t="n">
-        <v>2365.166857657212</v>
+        <v>2371.349890329765</v>
       </c>
       <c r="V34" t="n">
-        <v>2078.211349527643</v>
+        <v>2084.394382200196</v>
       </c>
       <c r="W34" t="n">
-        <v>1806.184945113935</v>
+        <v>1812.367977786488</v>
       </c>
       <c r="X34" t="n">
-        <v>1560.793190447347</v>
+        <v>1566.9762231199</v>
       </c>
       <c r="Y34" t="n">
-        <v>1333.373519761455</v>
+        <v>1339.556552434008</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2519.294218802478</v>
+        <v>2514.582347665143</v>
       </c>
       <c r="C35" t="n">
-        <v>2081.151745985901</v>
+        <v>2076.439874848566</v>
       </c>
       <c r="D35" t="n">
-        <v>1645.241961160345</v>
+        <v>1640.53009002301</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.467216318641</v>
+        <v>1206.755345181306</v>
       </c>
       <c r="F35" t="n">
-        <v>783.5997867278484</v>
+        <v>778.8879155905133</v>
       </c>
       <c r="G35" t="n">
-        <v>382.9573067997802</v>
+        <v>378.2454356624452</v>
       </c>
       <c r="H35" t="n">
         <v>101.5628952666675</v>
       </c>
       <c r="I35" t="n">
-        <v>129.6955850612769</v>
+        <v>129.695585061277</v>
       </c>
       <c r="J35" t="n">
-        <v>192.5293158283353</v>
+        <v>627.7840032812533</v>
       </c>
       <c r="K35" t="n">
-        <v>1121.051082241927</v>
+        <v>1556.305769694845</v>
       </c>
       <c r="L35" t="n">
-        <v>2312.93908976812</v>
+        <v>1673.133810968179</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.932796038329</v>
+        <v>1803.127517238388</v>
       </c>
       <c r="N35" t="n">
-        <v>2575.029936380227</v>
+        <v>2196.357502634836</v>
       </c>
       <c r="O35" t="n">
-        <v>3679.945186741495</v>
+        <v>3301.272752996105</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.195627488419</v>
+        <v>4236.041562735363</v>
       </c>
       <c r="Q35" t="n">
-        <v>5031.640639970187</v>
+        <v>4862.486575217132</v>
       </c>
       <c r="R35" t="n">
-        <v>5078.144763333374</v>
+        <v>5078.144763333375</v>
       </c>
       <c r="S35" t="n">
-        <v>5011.705460653732</v>
+        <v>5011.705460653733</v>
       </c>
       <c r="T35" t="n">
-        <v>4794.944784493315</v>
+        <v>4794.944784493316</v>
       </c>
       <c r="U35" t="n">
-        <v>4535.782909926225</v>
+        <v>4535.782909926226</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.165959860052</v>
+        <v>4173.165959860053</v>
       </c>
       <c r="W35" t="n">
-        <v>3768.310505271085</v>
+        <v>3768.310505271086</v>
       </c>
       <c r="X35" t="n">
-        <v>3353.879912987732</v>
+        <v>3349.168041850397</v>
       </c>
       <c r="Y35" t="n">
-        <v>2945.593789287385</v>
+        <v>2940.88191815005</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>141.2644318404802</v>
       </c>
       <c r="J36" t="n">
-        <v>503.2460963974036</v>
+        <v>503.2460963974037</v>
       </c>
       <c r="K36" t="n">
-        <v>567.2085444597595</v>
+        <v>1099.731251653573</v>
       </c>
       <c r="L36" t="n">
-        <v>653.2139493359564</v>
+        <v>1185.73665652977</v>
       </c>
       <c r="M36" t="n">
-        <v>753.5782002136027</v>
+        <v>1286.100907407416</v>
       </c>
       <c r="N36" t="n">
-        <v>856.5987941688312</v>
+        <v>1389.121501362645</v>
       </c>
       <c r="O36" t="n">
-        <v>950.8425109311592</v>
+        <v>1483.365218124973</v>
       </c>
       <c r="P36" t="n">
-        <v>1026.481402305765</v>
+        <v>1559.004109499579</v>
       </c>
       <c r="Q36" t="n">
         <v>1609.566705268023</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1167.080390536325</v>
+        <v>1147.641773079566</v>
       </c>
       <c r="C37" t="n">
-        <v>994.5186790195495</v>
+        <v>975.0800615627912</v>
       </c>
       <c r="D37" t="n">
-        <v>828.6406862210722</v>
+        <v>809.2020687643139</v>
       </c>
       <c r="E37" t="n">
-        <v>658.8826824718094</v>
+        <v>639.4440650150511</v>
       </c>
       <c r="F37" t="n">
-        <v>482.1756284335656</v>
+        <v>462.7370109768074</v>
       </c>
       <c r="G37" t="n">
-        <v>316.9231781153634</v>
+        <v>297.4845606586051</v>
       </c>
       <c r="H37" t="n">
-        <v>180.0334630197269</v>
+        <v>160.5948455629686</v>
       </c>
       <c r="I37" t="n">
         <v>101.5628952666675</v>
@@ -7098,10 +7098,10 @@
         <v>211.6207810352213</v>
       </c>
       <c r="K37" t="n">
-        <v>524.9611314167439</v>
+        <v>524.961131416744</v>
       </c>
       <c r="L37" t="n">
-        <v>992.542556540188</v>
+        <v>992.5425565401881</v>
       </c>
       <c r="M37" t="n">
         <v>1504.081793788277</v>
@@ -7113,7 +7113,7 @@
         <v>2463.765743529774</v>
       </c>
       <c r="P37" t="n">
-        <v>2851.436451417282</v>
+        <v>2851.436451417283</v>
       </c>
       <c r="Q37" t="n">
         <v>3047.43656918533</v>
@@ -7122,25 +7122,25 @@
         <v>3047.43656918533</v>
       </c>
       <c r="S37" t="n">
-        <v>2913.538607626401</v>
+        <v>2894.099990169643</v>
       </c>
       <c r="T37" t="n">
-        <v>2669.106866553092</v>
+        <v>2649.668249096334</v>
       </c>
       <c r="U37" t="n">
-        <v>2390.692347151069</v>
+        <v>2371.253729694311</v>
       </c>
       <c r="V37" t="n">
-        <v>2103.7368390215</v>
+        <v>2084.298221564741</v>
       </c>
       <c r="W37" t="n">
-        <v>1831.710434607791</v>
+        <v>1812.271817151033</v>
       </c>
       <c r="X37" t="n">
-        <v>1586.318679941204</v>
+        <v>1566.880062484445</v>
       </c>
       <c r="Y37" t="n">
-        <v>1358.899009255312</v>
+        <v>1339.460391798553</v>
       </c>
     </row>
     <row r="38">
@@ -7165,43 +7165,43 @@
         <v>783.5997867278484</v>
       </c>
       <c r="G38" t="n">
-        <v>382.9573067997802</v>
+        <v>382.9573067997803</v>
       </c>
       <c r="H38" t="n">
         <v>101.5628952666675</v>
       </c>
       <c r="I38" t="n">
-        <v>129.6955850612769</v>
+        <v>129.695585061277</v>
       </c>
       <c r="J38" t="n">
-        <v>627.7840032812533</v>
+        <v>192.5293158283354</v>
       </c>
       <c r="K38" t="n">
-        <v>1556.305769694845</v>
+        <v>1121.051082241928</v>
       </c>
       <c r="L38" t="n">
-        <v>1673.133810968178</v>
+        <v>2312.93908976812</v>
       </c>
       <c r="M38" t="n">
-        <v>1803.127517238388</v>
+        <v>2442.93279603833</v>
       </c>
       <c r="N38" t="n">
-        <v>2196.357502634836</v>
+        <v>2575.029936380228</v>
       </c>
       <c r="O38" t="n">
-        <v>3301.272752996104</v>
+        <v>3679.945186741497</v>
       </c>
       <c r="P38" t="n">
-        <v>4236.041562735362</v>
+        <v>4405.19562748842</v>
       </c>
       <c r="Q38" t="n">
-        <v>4862.486575217131</v>
+        <v>5031.640639970188</v>
       </c>
       <c r="R38" t="n">
-        <v>5078.144763333374</v>
+        <v>5078.144763333375</v>
       </c>
       <c r="S38" t="n">
-        <v>5016.417331791068</v>
+        <v>5011.705460653733</v>
       </c>
       <c r="T38" t="n">
         <v>4799.656655630651</v>
@@ -7253,25 +7253,25 @@
         <v>141.2644318404802</v>
       </c>
       <c r="J39" t="n">
-        <v>503.2460963974036</v>
+        <v>503.2460963974037</v>
       </c>
       <c r="K39" t="n">
-        <v>567.2085444597595</v>
+        <v>567.2085444597598</v>
       </c>
       <c r="L39" t="n">
-        <v>653.2139493359564</v>
+        <v>653.2139493359567</v>
       </c>
       <c r="M39" t="n">
-        <v>753.5782002136027</v>
+        <v>753.5782002136033</v>
       </c>
       <c r="N39" t="n">
-        <v>856.5987941688312</v>
+        <v>856.5987941688319</v>
       </c>
       <c r="O39" t="n">
-        <v>950.8425109311592</v>
+        <v>950.8425109311599</v>
       </c>
       <c r="P39" t="n">
-        <v>1026.481402305765</v>
+        <v>1026.481402305766</v>
       </c>
       <c r="Q39" t="n">
         <v>1609.566705268023</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1167.080390536325</v>
+        <v>1147.641773079566</v>
       </c>
       <c r="C40" t="n">
-        <v>994.5186790195495</v>
+        <v>975.0800615627912</v>
       </c>
       <c r="D40" t="n">
-        <v>828.6406862210722</v>
+        <v>809.2020687643139</v>
       </c>
       <c r="E40" t="n">
-        <v>658.8826824718094</v>
+        <v>639.4440650150511</v>
       </c>
       <c r="F40" t="n">
-        <v>482.1756284335656</v>
+        <v>462.7370109768074</v>
       </c>
       <c r="G40" t="n">
-        <v>316.9231781153634</v>
+        <v>297.4845606586051</v>
       </c>
       <c r="H40" t="n">
         <v>180.0334630197269</v>
@@ -7335,10 +7335,10 @@
         <v>211.6207810352213</v>
       </c>
       <c r="K40" t="n">
-        <v>524.9611314167439</v>
+        <v>524.961131416744</v>
       </c>
       <c r="L40" t="n">
-        <v>992.542556540188</v>
+        <v>992.5425565401881</v>
       </c>
       <c r="M40" t="n">
         <v>1504.081793788277</v>
@@ -7350,7 +7350,7 @@
         <v>2463.765743529774</v>
       </c>
       <c r="P40" t="n">
-        <v>2851.436451417282</v>
+        <v>2851.436451417283</v>
       </c>
       <c r="Q40" t="n">
         <v>3047.43656918533</v>
@@ -7359,25 +7359,25 @@
         <v>3047.43656918533</v>
       </c>
       <c r="S40" t="n">
-        <v>2913.538607626401</v>
+        <v>2894.099990169643</v>
       </c>
       <c r="T40" t="n">
-        <v>2669.106866553092</v>
+        <v>2649.668249096334</v>
       </c>
       <c r="U40" t="n">
-        <v>2390.692347151069</v>
+        <v>2371.253729694311</v>
       </c>
       <c r="V40" t="n">
-        <v>2103.7368390215</v>
+        <v>2084.298221564741</v>
       </c>
       <c r="W40" t="n">
-        <v>1831.710434607791</v>
+        <v>1812.271817151033</v>
       </c>
       <c r="X40" t="n">
-        <v>1586.318679941204</v>
+        <v>1566.880062484445</v>
       </c>
       <c r="Y40" t="n">
-        <v>1358.899009255312</v>
+        <v>1339.460391798553</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2512.671725070263</v>
+        <v>2183.4576610544</v>
       </c>
       <c r="C41" t="n">
         <v>2074.529252253686</v>
@@ -7411,19 +7411,19 @@
         <v>123.0730913290621</v>
       </c>
       <c r="J41" t="n">
-        <v>621.1615095490383</v>
+        <v>621.1615095490386</v>
       </c>
       <c r="K41" t="n">
-        <v>1486.313928138654</v>
+        <v>1549.683275962631</v>
       </c>
       <c r="L41" t="n">
-        <v>1603.141969411987</v>
+        <v>1666.511317235964</v>
       </c>
       <c r="M41" t="n">
-        <v>1733.135675682197</v>
+        <v>1796.505023506174</v>
       </c>
       <c r="N41" t="n">
-        <v>1865.232816024095</v>
+        <v>1928.602163848072</v>
       </c>
       <c r="O41" t="n">
         <v>2970.148066385363</v>
@@ -7438,25 +7438,25 @@
         <v>4747.020076722632</v>
       </c>
       <c r="S41" t="n">
-        <v>4747.020076722632</v>
+        <v>4680.580774042991</v>
       </c>
       <c r="T41" t="n">
-        <v>4747.020076722632</v>
+        <v>4463.820097882573</v>
       </c>
       <c r="U41" t="n">
-        <v>4533.872287331346</v>
+        <v>4204.658223315484</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.255337265173</v>
+        <v>3842.041273249311</v>
       </c>
       <c r="W41" t="n">
-        <v>3766.399882676206</v>
+        <v>3437.185818660344</v>
       </c>
       <c r="X41" t="n">
-        <v>3347.257419255517</v>
+        <v>3018.043355239655</v>
       </c>
       <c r="Y41" t="n">
-        <v>2938.97129555517</v>
+        <v>2609.757231539308</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>94.94040153445265</v>
       </c>
       <c r="I42" t="n">
-        <v>108.5782649478078</v>
+        <v>134.6419381082654</v>
       </c>
       <c r="J42" t="n">
-        <v>146.0016045385188</v>
+        <v>496.6236026651889</v>
       </c>
       <c r="K42" t="n">
-        <v>890.6975726712523</v>
+        <v>1093.108757921358</v>
       </c>
       <c r="L42" t="n">
-        <v>976.702977547449</v>
+        <v>1179.114162797555</v>
       </c>
       <c r="M42" t="n">
-        <v>1077.067228425095</v>
+        <v>1279.478413675201</v>
       </c>
       <c r="N42" t="n">
-        <v>1180.087822380324</v>
+        <v>1382.49900763043</v>
       </c>
       <c r="O42" t="n">
-        <v>1274.331539142652</v>
+        <v>1476.742724392758</v>
       </c>
       <c r="P42" t="n">
-        <v>1349.970430517257</v>
+        <v>1552.381615767364</v>
       </c>
       <c r="Q42" t="n">
-        <v>1720.116989630148</v>
+        <v>1602.944211535808</v>
       </c>
       <c r="R42" t="n">
         <v>1744.710313767658</v>
@@ -7557,10 +7557,10 @@
         <v>632.8215712828353</v>
       </c>
       <c r="F43" t="n">
-        <v>456.1145172445915</v>
+        <v>475.5531347013508</v>
       </c>
       <c r="G43" t="n">
-        <v>290.8620669263893</v>
+        <v>310.3006843831486</v>
       </c>
       <c r="H43" t="n">
         <v>173.410969287512</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2183.457661054399</v>
+        <v>2183.4576610544</v>
       </c>
       <c r="C44" t="n">
-        <v>1745.315188237822</v>
+        <v>2074.529252253686</v>
       </c>
       <c r="D44" t="n">
-        <v>1309.405403412266</v>
+        <v>1638.619467428131</v>
       </c>
       <c r="E44" t="n">
-        <v>875.6306585705615</v>
+        <v>1204.844722586426</v>
       </c>
       <c r="F44" t="n">
-        <v>447.7632289797693</v>
+        <v>776.9772929956335</v>
       </c>
       <c r="G44" t="n">
         <v>376.3348130675654</v>
       </c>
       <c r="H44" t="n">
-        <v>94.94040153445262</v>
+        <v>94.94040153445265</v>
       </c>
       <c r="I44" t="n">
         <v>123.0730913290621</v>
       </c>
       <c r="J44" t="n">
-        <v>621.1615095490383</v>
+        <v>185.9068220961205</v>
       </c>
       <c r="K44" t="n">
-        <v>1408.434166993441</v>
+        <v>1114.428588509713</v>
       </c>
       <c r="L44" t="n">
-        <v>2583.321635982292</v>
+        <v>2289.316057498564</v>
       </c>
       <c r="M44" t="n">
-        <v>2713.315342252502</v>
+        <v>3107.944336474187</v>
       </c>
       <c r="N44" t="n">
-        <v>2845.412482594399</v>
+        <v>3240.041476816085</v>
       </c>
       <c r="O44" t="n">
-        <v>2970.148066385361</v>
+        <v>4344.956727177354</v>
       </c>
       <c r="P44" t="n">
-        <v>3904.91687612462</v>
+        <v>4451.415662083216</v>
       </c>
       <c r="Q44" t="n">
-        <v>4531.361888606388</v>
+        <v>4531.36188860639</v>
       </c>
       <c r="R44" t="n">
-        <v>4747.020076722631</v>
+        <v>4747.020076722632</v>
       </c>
       <c r="S44" t="n">
-        <v>4680.580774042989</v>
+        <v>4680.580774042991</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.820097882572</v>
+        <v>4463.820097882573</v>
       </c>
       <c r="U44" t="n">
-        <v>4204.658223315482</v>
+        <v>4204.658223315484</v>
       </c>
       <c r="V44" t="n">
-        <v>3842.041273249309</v>
+        <v>3842.041273249311</v>
       </c>
       <c r="W44" t="n">
-        <v>3437.185818660342</v>
+        <v>3437.185818660344</v>
       </c>
       <c r="X44" t="n">
-        <v>3018.043355239653</v>
+        <v>3018.043355239655</v>
       </c>
       <c r="Y44" t="n">
-        <v>2609.757231539306</v>
+        <v>2609.757231539308</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>132.7728285519263</v>
       </c>
       <c r="H45" t="n">
-        <v>94.94040153445262</v>
+        <v>94.94040153445265</v>
       </c>
       <c r="I45" t="n">
-        <v>134.6419381082653</v>
+        <v>134.6419381082654</v>
       </c>
       <c r="J45" t="n">
-        <v>488.4073712269271</v>
+        <v>496.6236026651889</v>
       </c>
       <c r="K45" t="n">
-        <v>552.3698192892832</v>
+        <v>560.5860507275449</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3752241654799</v>
+        <v>646.5914556037418</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7394750431263</v>
+        <v>746.9557064813882</v>
       </c>
       <c r="N45" t="n">
-        <v>841.7600689983548</v>
+        <v>849.976300436617</v>
       </c>
       <c r="O45" t="n">
-        <v>936.0037857606827</v>
+        <v>944.220017198945</v>
       </c>
       <c r="P45" t="n">
-        <v>1011.642677135288</v>
+        <v>1019.858908573551</v>
       </c>
       <c r="Q45" t="n">
         <v>1602.944211535808</v>
@@ -7800,10 +7800,10 @@
         <v>284.6790342538362</v>
       </c>
       <c r="H46" t="n">
-        <v>173.410969287512</v>
+        <v>147.7893191581997</v>
       </c>
       <c r="I46" t="n">
-        <v>94.94040153445262</v>
+        <v>94.94040153445265</v>
       </c>
       <c r="J46" t="n">
         <v>204.9982873030064</v>
@@ -7981,25 +7981,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M2" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="N2" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q2" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8458,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8531,16 +8531,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,7 +8695,7 @@
         <v>667.3557723754228</v>
       </c>
       <c r="L11" t="n">
-        <v>137.8648342245498</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>137.8648342245492</v>
       </c>
       <c r="P11" t="n">
         <v>667.1781318851852</v>
@@ -8771,16 +8771,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.7925059282755</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>530.1437774365194</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>667.227840169052</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>530.7084431957428</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,7 +8932,7 @@
         <v>667.3557723754228</v>
       </c>
       <c r="L14" t="n">
-        <v>137.8648342245497</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>137.8648342245503</v>
       </c>
       <c r="P14" t="n">
-        <v>667.1781318851852</v>
+        <v>667.1781318851854</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9005,16 +9005,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>667.7925059282757</v>
+        <v>667.7925059282755</v>
       </c>
       <c r="L15" t="n">
-        <v>667.4738296915963</v>
+        <v>530.1437774365199</v>
       </c>
       <c r="M15" t="n">
-        <v>190.506639629986</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>408.9839207935374</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>238.1212291237825</v>
       </c>
       <c r="P17" t="n">
         <v>643.9641085210508</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>319.5374682100512</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>537.9017244381951</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9403,7 +9403,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>238.1212291237831</v>
+        <v>656.3756847336251</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>643.964108521051</v>
+        <v>396.5723445809626</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>319.5374682100514</v>
+        <v>319.5374682100504</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>268.5300163554402</v>
+        <v>268.5300163554393</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9716,7 +9716,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>319.5374682100512</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>537.9017244381948</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9880,13 +9880,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>268.5300163554415</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>268.5300163554393</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9953,7 +9953,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>319.5374682100512</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>537.9017244381948</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10117,16 +10117,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>268.5300163554393</v>
       </c>
       <c r="O29" t="n">
-        <v>172.6913298074081</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10190,7 +10190,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>319.5374682100512</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>537.9017244381948</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>635.9028223264446</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10366,7 +10366,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>190.1501914398768</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10427,7 +10427,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>319.5374682100512</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>537.9017244381948</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>263.7705505601507</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>625.0419250919811</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>537.9017244381949</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>537.9017244381961</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>263.7705505601512</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>625.0419250919799</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>537.9017244381961</v>
+        <v>537.9017244381948</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11062,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>778.7686304385871</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>926.0710290366951</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>537.9017244381951</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.8120841863097</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>700.1022050393823</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1068.746896682341</v>
+        <v>1068.746896682342</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>695.5904774802148</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11375,7 +11375,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>319.5374682100512</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>537.9017244381951</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>402.1869657269003</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>127.4850184333516</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>333.8862956058698</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>236.4791997122509</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22953,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>26.99333424003452</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23032,10 +23032,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>12.24694455442507</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -23083,10 +23083,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>346.2534947281886</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>231.4025348707187</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>36.62706451638002</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S13" t="n">
-        <v>155.8059581789754</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>49.16524193784795</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>226.7926959203661</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H14" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962432</v>
       </c>
       <c r="T14" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6292234284552</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>134.8181822942078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.4604679489429</v>
       </c>
       <c r="I16" t="n">
-        <v>87.62897272389382</v>
+        <v>87.62897272389384</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.98777588476758</v>
+        <v>20.98777588476761</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>316.113869710185</v>
+        <v>8.198794755778749</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>278.5804674177816</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>65.77490965284485</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>214.5930693988131</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5702558214188</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>19.24423128219181</v>
+        <v>25.36543362801884</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.121202345827616</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>296.7283768786438</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>303.3789103643781</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>65.77490965284485</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.5930693988131</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5702558214188</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>25.36543362801886</v>
+        <v>19.24423128219134</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.121202345827596</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>19.24423128219208</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.121202345827616</v>
+        <v>6.121202345827596</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>19.24423128219172</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>19.24423128219209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>19.24423128219163</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.121202345827616</v>
+        <v>6.121202345827596</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>19.24423128219209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>19.24423128219163</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.121202345827616</v>
+        <v>6.121202345827596</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>25.3654336280191</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>19.24423128219161</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.121202345827596</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>4.664752425961751</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.664752425962718</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>19.24423128219071</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.121202345827616</v>
+        <v>6.121202345827596</v>
       </c>
       <c r="S37" t="n">
-        <v>19.24423128219172</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.664752425962359</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>4.664752425961524</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>19.24423128219071</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.121202345827616</v>
+        <v>6.121202345827596</v>
       </c>
       <c r="S40" t="n">
-        <v>19.24423128219172</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>325.9219233757037</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>65.77490965284487</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.5930693988131</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>45.55394432404556</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>19.24423128219172</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>19.24423128219172</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.121202345827616</v>
+        <v>6.121202345827596</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>325.9219233757037</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>325.9219233757056</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>25.36543362801919</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>25.36543362801922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466214.6031976786</v>
+        <v>466214.6031976787</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>466703.2690652201</v>
+        <v>466703.26906522</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>497247.0087590121</v>
+        <v>497247.0087590122</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718365.8996531813</v>
+        <v>718365.8996531812</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>717854.0231429249</v>
+        <v>717854.023142925</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>717854.0231429249</v>
+        <v>717854.023142925</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>682601.5628740098</v>
+        <v>682601.5628740097</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>682601.5628740096</v>
+        <v>682601.5628740097</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>186005.1756518478</v>
+      </c>
+      <c r="C2" t="n">
         <v>186005.1756518479</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>186005.1756518478</v>
-      </c>
-      <c r="D2" t="n">
-        <v>186005.1756518479</v>
       </c>
       <c r="E2" t="n">
         <v>186313.8320063034</v>
@@ -26340,22 +26340,22 @@
         <v>294546.2022158349</v>
       </c>
       <c r="K2" t="n">
-        <v>294546.2022158348</v>
+        <v>294546.2022158349</v>
       </c>
       <c r="L2" t="n">
-        <v>294546.2022158348</v>
+        <v>294546.2022158349</v>
       </c>
       <c r="M2" t="n">
-        <v>294341.9793546261</v>
+        <v>294341.9793546263</v>
       </c>
       <c r="N2" t="n">
         <v>294341.9793546263</v>
       </c>
       <c r="O2" t="n">
+        <v>280277.3404104466</v>
+      </c>
+      <c r="P2" t="n">
         <v>280277.3404104465</v>
-      </c>
-      <c r="P2" t="n">
-        <v>280277.3404104464</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2497.819445851136</v>
+        <v>2497.819445851103</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>165243.1872838737</v>
+        <v>165243.1872838742</v>
       </c>
       <c r="H3" t="n">
-        <v>1.031184219755233e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>138076.7701991718</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>60902.71586860552</v>
       </c>
       <c r="E4" t="n">
+        <v>60718.67692594198</v>
+      </c>
+      <c r="F4" t="n">
         <v>60718.676925942</v>
       </c>
-      <c r="F4" t="n">
-        <v>60718.67692594199</v>
-      </c>
       <c r="G4" t="n">
-        <v>47648.23888521799</v>
+        <v>47648.23888521797</v>
       </c>
       <c r="H4" t="n">
-        <v>47648.23888521799</v>
+        <v>47648.23888521797</v>
       </c>
       <c r="I4" t="n">
-        <v>76533.52238544065</v>
+        <v>76533.52238544064</v>
       </c>
       <c r="J4" t="n">
-        <v>76533.52238544066</v>
+        <v>76533.52238544064</v>
       </c>
       <c r="K4" t="n">
-        <v>76533.52238544066</v>
+        <v>76533.52238544064</v>
       </c>
       <c r="L4" t="n">
-        <v>76533.52238544066</v>
+        <v>76533.52238544062</v>
       </c>
       <c r="M4" t="n">
         <v>76466.65474669631</v>
       </c>
       <c r="N4" t="n">
-        <v>76466.65474669632</v>
+        <v>76466.65474669629</v>
       </c>
       <c r="O4" t="n">
-        <v>71861.54251575939</v>
+        <v>71861.54251575936</v>
       </c>
       <c r="P4" t="n">
         <v>71861.54251575936</v>
@@ -26481,16 +26481,16 @@
         <v>40716.04550407668</v>
       </c>
       <c r="F5" t="n">
-        <v>40716.04550407668</v>
+        <v>40716.04550407667</v>
       </c>
       <c r="G5" t="n">
-        <v>49746.22312876908</v>
+        <v>49746.2231287691</v>
       </c>
       <c r="H5" t="n">
-        <v>49746.22312876909</v>
+        <v>49746.2231287691</v>
       </c>
       <c r="I5" t="n">
-        <v>81316.00373319538</v>
+        <v>81316.00373319539</v>
       </c>
       <c r="J5" t="n">
         <v>81316.00373319539</v>
@@ -26502,16 +26502,16 @@
         <v>81316.00373319539</v>
       </c>
       <c r="M5" t="n">
-        <v>81242.92165024894</v>
+        <v>81242.92165024896</v>
       </c>
       <c r="N5" t="n">
-        <v>81242.92165024894</v>
+        <v>81242.92165024896</v>
       </c>
       <c r="O5" t="n">
         <v>76209.82641376568</v>
       </c>
       <c r="P5" t="n">
-        <v>76209.82641376565</v>
+        <v>76209.82641376568</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172809.7633625602</v>
+        <v>-173304.6535911415</v>
       </c>
       <c r="C6" t="n">
-        <v>50889.93522148457</v>
+        <v>50395.04499290337</v>
       </c>
       <c r="D6" t="n">
-        <v>50889.93522148463</v>
+        <v>50395.04499290334</v>
       </c>
       <c r="E6" t="n">
-        <v>82381.2901304336</v>
+        <v>81887.80288528174</v>
       </c>
       <c r="F6" t="n">
-        <v>84879.10957628471</v>
+        <v>84385.62233113284</v>
       </c>
       <c r="G6" t="n">
-        <v>-56311.03063563805</v>
+        <v>-56713.55066871801</v>
       </c>
       <c r="H6" t="n">
-        <v>108932.1566482356</v>
+        <v>108529.6366151561</v>
       </c>
       <c r="I6" t="n">
-        <v>-1380.094101972936</v>
+        <v>-1381.616027990632</v>
       </c>
       <c r="J6" t="n">
-        <v>-37954.67262050738</v>
+        <v>-37956.19454652497</v>
       </c>
       <c r="K6" t="n">
-        <v>136696.6760971988</v>
+        <v>136695.1541711811</v>
       </c>
       <c r="L6" t="n">
-        <v>136696.6760971988</v>
+        <v>136695.1541711812</v>
       </c>
       <c r="M6" t="n">
-        <v>136632.4029576809</v>
+        <v>136629.9527459306</v>
       </c>
       <c r="N6" t="n">
-        <v>136632.402957681</v>
+        <v>136629.9527459306</v>
       </c>
       <c r="O6" t="n">
-        <v>132205.9714809214</v>
+        <v>132139.5910921521</v>
       </c>
       <c r="P6" t="n">
-        <v>132205.9714809214</v>
+        <v>132139.5910921521</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="F3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998739993</v>
       </c>
       <c r="G3" t="n">
-        <v>186.0147361275996</v>
+        <v>186.0147361275999</v>
       </c>
       <c r="H3" t="n">
-        <v>186.0147361275996</v>
+        <v>186.0147361275999</v>
       </c>
       <c r="I3" t="n">
-        <v>186.0147361275996</v>
+        <v>186.0147361275999</v>
       </c>
       <c r="J3" t="n">
-        <v>186.0147361275996</v>
+        <v>186.0147361275999</v>
       </c>
       <c r="K3" t="n">
-        <v>186.0147361275996</v>
+        <v>186.0147361275999</v>
       </c>
       <c r="L3" t="n">
-        <v>186.0147361275996</v>
+        <v>186.0147361275999</v>
       </c>
       <c r="M3" t="n">
-        <v>186.0147361275996</v>
+        <v>186.0147361275999</v>
       </c>
       <c r="N3" t="n">
-        <v>186.0147361275996</v>
+        <v>186.0147361275999</v>
       </c>
       <c r="O3" t="n">
-        <v>186.0147361275996</v>
+        <v>186.0147361275999</v>
       </c>
       <c r="P3" t="n">
-        <v>186.0147361275996</v>
+        <v>186.0147361275999</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>668.717214551055</v>
+        <v>668.7172145510549</v>
       </c>
       <c r="F4" t="n">
-        <v>668.717214551055</v>
+        <v>668.7172145510549</v>
       </c>
       <c r="G4" t="n">
-        <v>751.4983862037403</v>
+        <v>751.4983862037404</v>
       </c>
       <c r="H4" t="n">
         <v>751.4983862037404</v>
       </c>
       <c r="I4" t="n">
-        <v>1270.738198776541</v>
+        <v>1270.738198776542</v>
       </c>
       <c r="J4" t="n">
         <v>1270.738198776542</v>
@@ -26822,10 +26822,10 @@
         <v>1270.738198776542</v>
       </c>
       <c r="M4" t="n">
-        <v>1269.536190833343</v>
+        <v>1269.536190833344</v>
       </c>
       <c r="N4" t="n">
-        <v>1269.536190833343</v>
+        <v>1269.536190833344</v>
       </c>
       <c r="O4" t="n">
         <v>1186.755019180658</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>183.3524031288594</v>
+        <v>183.3524031288599</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.202007943198055</v>
+        <v>1.202007943197941</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>82.78117165268532</v>
+        <v>82.78117165268554</v>
       </c>
       <c r="H4" t="n">
-        <v>3.82190445743186e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>519.2398125728009</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.202007943198055</v>
+        <v>1.202007943197941</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>82.78117165268532</v>
+        <v>82.78117165268554</v>
       </c>
       <c r="P4" t="n">
-        <v>3.82190445743186e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31761,7 +31761,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K11" t="n">
         <v>1.361442175632203</v>
@@ -31770,7 +31770,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M11" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N11" t="n">
         <v>1.909735609237095</v>
@@ -31785,16 +31785,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H12" t="n">
         <v>0.05530620059647288</v>
@@ -31843,7 +31843,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L12" t="n">
         <v>1.243384859458851</v>
@@ -31861,19 +31861,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R12" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T12" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J13" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N13" t="n">
         <v>0.7346729732425471</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R13" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S13" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T13" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01070284622609162</v>
+        <v>0.01070284622609042</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1096105239129608</v>
+        <v>0.1096105239129485</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313512</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948816423</v>
       </c>
       <c r="K14" t="n">
-        <v>1.361442175632203</v>
+        <v>1.36144217563205</v>
       </c>
       <c r="L14" t="n">
-        <v>1.688989405823955</v>
+        <v>1.688989405823765</v>
       </c>
       <c r="M14" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397</v>
       </c>
       <c r="N14" t="n">
-        <v>1.909735609237095</v>
+        <v>1.90973560923688</v>
       </c>
       <c r="O14" t="n">
-        <v>1.803309182076396</v>
+        <v>1.803309182076193</v>
       </c>
       <c r="P14" t="n">
-        <v>1.539082665869759</v>
+        <v>1.539082665869586</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.155786985397852</v>
+        <v>1.155786985397722</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642496527</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.2438911083770356</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471082</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980872331</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582195457</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05530620059647288</v>
+        <v>0.05530620059646666</v>
       </c>
       <c r="I15" t="n">
-        <v>0.19716334000105</v>
+        <v>0.1971633400010278</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5410312747723081</v>
+        <v>0.5410312747722472</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227793427</v>
       </c>
       <c r="L15" t="n">
-        <v>1.243384859458851</v>
+        <v>1.243384859458711</v>
       </c>
       <c r="M15" t="n">
-        <v>1.450971484313459</v>
+        <v>1.450971484313296</v>
       </c>
       <c r="N15" t="n">
-        <v>1.489374382002836</v>
+        <v>1.489374382002669</v>
       </c>
       <c r="O15" t="n">
-        <v>1.362486586628912</v>
+        <v>1.362486586628759</v>
       </c>
       <c r="P15" t="n">
-        <v>1.093515604709008</v>
+        <v>1.093515604708885</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225974412</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3555470370770528</v>
+        <v>0.3555470370770128</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.1063677382043761</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02308192477209743</v>
+        <v>0.02308192477209484</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707539</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358383593</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758635598</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775721</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3394256349377582</v>
+        <v>0.33942563493772</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.5577805856376574</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124818664</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425782572</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.7346729732424644</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010558922</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625448664</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097389</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2158671969142538</v>
+        <v>0.2158671969142295</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.08366708784564859</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02051305753127766</v>
+        <v>0.02051305753127535</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195481963</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7477979341813045</v>
+        <v>0.7477979341813054</v>
       </c>
       <c r="H17" t="n">
-        <v>7.658385593434287</v>
+        <v>7.658385593434296</v>
       </c>
       <c r="I17" t="n">
-        <v>28.82947985752477</v>
+        <v>28.82947985752481</v>
       </c>
       <c r="J17" t="n">
-        <v>63.46841491622055</v>
+        <v>63.46841491622063</v>
       </c>
       <c r="K17" t="n">
-        <v>95.12270147011519</v>
+        <v>95.1227014701153</v>
       </c>
       <c r="L17" t="n">
-        <v>118.0081224983163</v>
+        <v>118.0081224983165</v>
       </c>
       <c r="M17" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103132</v>
       </c>
       <c r="N17" t="n">
-        <v>133.4314548908057</v>
+        <v>133.4314548908059</v>
       </c>
       <c r="O17" t="n">
-        <v>125.9955391827904</v>
+        <v>125.9955391827905</v>
       </c>
       <c r="P17" t="n">
-        <v>107.5342776826894</v>
+        <v>107.5342776826895</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.7537641648214</v>
+        <v>80.7537641648215</v>
       </c>
       <c r="R17" t="n">
-        <v>46.97386198301641</v>
+        <v>46.97386198301647</v>
       </c>
       <c r="S17" t="n">
-        <v>17.04044542515649</v>
+        <v>17.04044542515651</v>
       </c>
       <c r="T17" t="n">
-        <v>3.273485456878662</v>
+        <v>3.273485456878666</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05982383473450435</v>
+        <v>0.05982383473450442</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4001071682744596</v>
+        <v>0.4001071682744601</v>
       </c>
       <c r="H18" t="n">
-        <v>3.864192914650702</v>
+        <v>3.864192914650707</v>
       </c>
       <c r="I18" t="n">
-        <v>13.7756196094496</v>
+        <v>13.77561960944962</v>
       </c>
       <c r="J18" t="n">
-        <v>37.80135312193042</v>
+        <v>37.80135312193047</v>
       </c>
       <c r="K18" t="n">
-        <v>64.6085333963192</v>
+        <v>64.60853339631929</v>
       </c>
       <c r="L18" t="n">
-        <v>86.87414633959266</v>
+        <v>86.87414633959276</v>
       </c>
       <c r="M18" t="n">
-        <v>101.3780311895418</v>
+        <v>101.3780311895419</v>
       </c>
       <c r="N18" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O18" t="n">
-        <v>95.19567349730092</v>
+        <v>95.19567349730103</v>
       </c>
       <c r="P18" t="n">
-        <v>76.40292058040976</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.07332905903453</v>
+        <v>51.07332905903459</v>
       </c>
       <c r="R18" t="n">
-        <v>24.84174155304058</v>
+        <v>24.84174155304061</v>
       </c>
       <c r="S18" t="n">
-        <v>7.431815165097961</v>
+        <v>7.431815165097971</v>
       </c>
       <c r="T18" t="n">
-        <v>1.612712665106264</v>
+        <v>1.612712665106266</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02632284001805656</v>
+        <v>0.02632284001805659</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3354364094104255</v>
+        <v>0.335436409410426</v>
       </c>
       <c r="H19" t="n">
-        <v>2.982334621849058</v>
+        <v>2.982334621849062</v>
       </c>
       <c r="I19" t="n">
-        <v>10.08748765754262</v>
+        <v>10.08748765754263</v>
       </c>
       <c r="J19" t="n">
-        <v>23.71535414531708</v>
+        <v>23.71535414531711</v>
       </c>
       <c r="K19" t="n">
-        <v>38.97161192968397</v>
+        <v>38.97161192968402</v>
       </c>
       <c r="L19" t="n">
-        <v>49.87024581361909</v>
+        <v>49.87024581361915</v>
       </c>
       <c r="M19" t="n">
-        <v>52.58118188603606</v>
+        <v>52.58118188603613</v>
       </c>
       <c r="N19" t="n">
-        <v>51.33091890550634</v>
+        <v>51.3309189055064</v>
       </c>
       <c r="O19" t="n">
-        <v>47.4124117592118</v>
+        <v>47.41241175921186</v>
       </c>
       <c r="P19" t="n">
-        <v>40.56950900723908</v>
+        <v>40.56950900723913</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.08822515526754</v>
+        <v>28.08822515526758</v>
       </c>
       <c r="R19" t="n">
-        <v>15.08244073585422</v>
+        <v>15.08244073585424</v>
       </c>
       <c r="S19" t="n">
-        <v>5.845741789452596</v>
+        <v>5.845741789452603</v>
       </c>
       <c r="T19" t="n">
-        <v>1.433228294753636</v>
+        <v>1.433228294753638</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01829653142238687</v>
+        <v>0.01829653142238689</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7477979341813045</v>
+        <v>0.7477979341813054</v>
       </c>
       <c r="H20" t="n">
-        <v>7.658385593434287</v>
+        <v>7.658385593434296</v>
       </c>
       <c r="I20" t="n">
-        <v>28.82947985752477</v>
+        <v>28.82947985752481</v>
       </c>
       <c r="J20" t="n">
-        <v>63.46841491622055</v>
+        <v>63.46841491622063</v>
       </c>
       <c r="K20" t="n">
-        <v>95.12270147011519</v>
+        <v>95.1227014701153</v>
       </c>
       <c r="L20" t="n">
-        <v>118.0081224983163</v>
+        <v>118.0081224983165</v>
       </c>
       <c r="M20" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103132</v>
       </c>
       <c r="N20" t="n">
-        <v>133.4314548908057</v>
+        <v>133.4314548908059</v>
       </c>
       <c r="O20" t="n">
-        <v>125.9955391827904</v>
+        <v>125.9955391827905</v>
       </c>
       <c r="P20" t="n">
-        <v>107.5342776826894</v>
+        <v>107.5342776826895</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.7537641648214</v>
+        <v>80.7537641648215</v>
       </c>
       <c r="R20" t="n">
-        <v>46.97386198301641</v>
+        <v>46.97386198301647</v>
       </c>
       <c r="S20" t="n">
-        <v>17.04044542515649</v>
+        <v>17.04044542515651</v>
       </c>
       <c r="T20" t="n">
-        <v>3.273485456878662</v>
+        <v>3.273485456878666</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05982383473450435</v>
+        <v>0.05982383473450442</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4001071682744596</v>
+        <v>0.4001071682744601</v>
       </c>
       <c r="H21" t="n">
-        <v>3.864192914650702</v>
+        <v>3.864192914650707</v>
       </c>
       <c r="I21" t="n">
-        <v>13.7756196094496</v>
+        <v>13.77561960944962</v>
       </c>
       <c r="J21" t="n">
-        <v>37.80135312193042</v>
+        <v>37.80135312193047</v>
       </c>
       <c r="K21" t="n">
-        <v>64.6085333963192</v>
+        <v>64.60853339631929</v>
       </c>
       <c r="L21" t="n">
-        <v>86.87414633959266</v>
+        <v>86.87414633959276</v>
       </c>
       <c r="M21" t="n">
-        <v>101.3780311895418</v>
+        <v>101.3780311895419</v>
       </c>
       <c r="N21" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O21" t="n">
-        <v>95.19567349730092</v>
+        <v>95.19567349730103</v>
       </c>
       <c r="P21" t="n">
-        <v>76.40292058040976</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.07332905903453</v>
+        <v>51.07332905903459</v>
       </c>
       <c r="R21" t="n">
-        <v>24.84174155304058</v>
+        <v>24.84174155304061</v>
       </c>
       <c r="S21" t="n">
-        <v>7.431815165097961</v>
+        <v>7.431815165097971</v>
       </c>
       <c r="T21" t="n">
-        <v>1.612712665106264</v>
+        <v>1.612712665106266</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02632284001805656</v>
+        <v>0.02632284001805659</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3354364094104255</v>
+        <v>0.335436409410426</v>
       </c>
       <c r="H22" t="n">
-        <v>2.982334621849058</v>
+        <v>2.982334621849062</v>
       </c>
       <c r="I22" t="n">
-        <v>10.08748765754262</v>
+        <v>10.08748765754263</v>
       </c>
       <c r="J22" t="n">
-        <v>23.71535414531708</v>
+        <v>23.71535414531711</v>
       </c>
       <c r="K22" t="n">
-        <v>38.97161192968397</v>
+        <v>38.97161192968402</v>
       </c>
       <c r="L22" t="n">
-        <v>49.87024581361909</v>
+        <v>49.87024581361915</v>
       </c>
       <c r="M22" t="n">
-        <v>52.58118188603606</v>
+        <v>52.58118188603613</v>
       </c>
       <c r="N22" t="n">
-        <v>51.33091890550634</v>
+        <v>51.3309189055064</v>
       </c>
       <c r="O22" t="n">
-        <v>47.4124117592118</v>
+        <v>47.41241175921186</v>
       </c>
       <c r="P22" t="n">
-        <v>40.56950900723908</v>
+        <v>40.56950900723913</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.08822515526754</v>
+        <v>28.08822515526758</v>
       </c>
       <c r="R22" t="n">
-        <v>15.08244073585422</v>
+        <v>15.08244073585424</v>
       </c>
       <c r="S22" t="n">
-        <v>5.845741789452596</v>
+        <v>5.845741789452603</v>
       </c>
       <c r="T22" t="n">
-        <v>1.433228294753636</v>
+        <v>1.433228294753638</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01829653142238687</v>
+        <v>0.01829653142238689</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7477979341813045</v>
+        <v>0.7477979341813054</v>
       </c>
       <c r="H23" t="n">
-        <v>7.658385593434287</v>
+        <v>7.658385593434296</v>
       </c>
       <c r="I23" t="n">
-        <v>28.82947985752477</v>
+        <v>28.82947985752481</v>
       </c>
       <c r="J23" t="n">
-        <v>63.46841491622055</v>
+        <v>63.46841491622063</v>
       </c>
       <c r="K23" t="n">
-        <v>95.12270147011519</v>
+        <v>95.1227014701153</v>
       </c>
       <c r="L23" t="n">
-        <v>118.0081224983163</v>
+        <v>118.0081224983165</v>
       </c>
       <c r="M23" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103132</v>
       </c>
       <c r="N23" t="n">
-        <v>133.4314548908057</v>
+        <v>133.4314548908059</v>
       </c>
       <c r="O23" t="n">
-        <v>125.9955391827904</v>
+        <v>125.9955391827905</v>
       </c>
       <c r="P23" t="n">
-        <v>107.5342776826894</v>
+        <v>107.5342776826895</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.7537641648214</v>
+        <v>80.7537641648215</v>
       </c>
       <c r="R23" t="n">
-        <v>46.97386198301641</v>
+        <v>46.97386198301647</v>
       </c>
       <c r="S23" t="n">
-        <v>17.04044542515649</v>
+        <v>17.04044542515651</v>
       </c>
       <c r="T23" t="n">
-        <v>3.273485456878662</v>
+        <v>3.273485456878666</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05982383473450435</v>
+        <v>0.05982383473450442</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4001071682744596</v>
+        <v>0.4001071682744601</v>
       </c>
       <c r="H24" t="n">
-        <v>3.864192914650702</v>
+        <v>3.864192914650707</v>
       </c>
       <c r="I24" t="n">
-        <v>13.7756196094496</v>
+        <v>13.77561960944962</v>
       </c>
       <c r="J24" t="n">
-        <v>37.80135312193042</v>
+        <v>37.80135312193047</v>
       </c>
       <c r="K24" t="n">
-        <v>64.6085333963192</v>
+        <v>64.60853339631929</v>
       </c>
       <c r="L24" t="n">
-        <v>86.87414633959266</v>
+        <v>86.87414633959276</v>
       </c>
       <c r="M24" t="n">
-        <v>101.3780311895418</v>
+        <v>101.3780311895419</v>
       </c>
       <c r="N24" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O24" t="n">
-        <v>95.19567349730092</v>
+        <v>95.19567349730103</v>
       </c>
       <c r="P24" t="n">
-        <v>76.40292058040976</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.07332905903453</v>
+        <v>51.07332905903459</v>
       </c>
       <c r="R24" t="n">
-        <v>24.84174155304058</v>
+        <v>24.84174155304061</v>
       </c>
       <c r="S24" t="n">
-        <v>7.431815165097961</v>
+        <v>7.431815165097971</v>
       </c>
       <c r="T24" t="n">
-        <v>1.612712665106264</v>
+        <v>1.612712665106266</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02632284001805656</v>
+        <v>0.02632284001805659</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3354364094104255</v>
+        <v>0.335436409410426</v>
       </c>
       <c r="H25" t="n">
-        <v>2.982334621849058</v>
+        <v>2.982334621849062</v>
       </c>
       <c r="I25" t="n">
-        <v>10.08748765754262</v>
+        <v>10.08748765754263</v>
       </c>
       <c r="J25" t="n">
-        <v>23.71535414531708</v>
+        <v>23.71535414531711</v>
       </c>
       <c r="K25" t="n">
-        <v>38.97161192968397</v>
+        <v>38.97161192968402</v>
       </c>
       <c r="L25" t="n">
-        <v>49.87024581361909</v>
+        <v>49.87024581361915</v>
       </c>
       <c r="M25" t="n">
-        <v>52.58118188603606</v>
+        <v>52.58118188603613</v>
       </c>
       <c r="N25" t="n">
-        <v>51.33091890550634</v>
+        <v>51.3309189055064</v>
       </c>
       <c r="O25" t="n">
-        <v>47.4124117592118</v>
+        <v>47.41241175921186</v>
       </c>
       <c r="P25" t="n">
-        <v>40.56950900723908</v>
+        <v>40.56950900723913</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.08822515526754</v>
+        <v>28.08822515526758</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08244073585422</v>
+        <v>15.08244073585424</v>
       </c>
       <c r="S25" t="n">
-        <v>5.845741789452596</v>
+        <v>5.845741789452603</v>
       </c>
       <c r="T25" t="n">
-        <v>1.433228294753636</v>
+        <v>1.433228294753638</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01829653142238687</v>
+        <v>0.01829653142238689</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7477979341813045</v>
+        <v>0.7477979341813054</v>
       </c>
       <c r="H26" t="n">
-        <v>7.658385593434287</v>
+        <v>7.658385593434296</v>
       </c>
       <c r="I26" t="n">
-        <v>28.82947985752477</v>
+        <v>28.82947985752481</v>
       </c>
       <c r="J26" t="n">
-        <v>63.46841491622055</v>
+        <v>63.46841491622063</v>
       </c>
       <c r="K26" t="n">
-        <v>95.12270147011519</v>
+        <v>95.1227014701153</v>
       </c>
       <c r="L26" t="n">
-        <v>118.0081224983163</v>
+        <v>118.0081224983165</v>
       </c>
       <c r="M26" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103132</v>
       </c>
       <c r="N26" t="n">
-        <v>133.4314548908057</v>
+        <v>133.4314548908059</v>
       </c>
       <c r="O26" t="n">
-        <v>125.9955391827904</v>
+        <v>125.9955391827905</v>
       </c>
       <c r="P26" t="n">
-        <v>107.5342776826894</v>
+        <v>107.5342776826895</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.7537641648214</v>
+        <v>80.7537641648215</v>
       </c>
       <c r="R26" t="n">
-        <v>46.97386198301641</v>
+        <v>46.97386198301647</v>
       </c>
       <c r="S26" t="n">
-        <v>17.04044542515649</v>
+        <v>17.04044542515651</v>
       </c>
       <c r="T26" t="n">
-        <v>3.273485456878662</v>
+        <v>3.273485456878666</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05982383473450435</v>
+        <v>0.05982383473450442</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4001071682744596</v>
+        <v>0.4001071682744601</v>
       </c>
       <c r="H27" t="n">
-        <v>3.864192914650702</v>
+        <v>3.864192914650707</v>
       </c>
       <c r="I27" t="n">
-        <v>13.7756196094496</v>
+        <v>13.77561960944962</v>
       </c>
       <c r="J27" t="n">
-        <v>37.80135312193042</v>
+        <v>37.80135312193047</v>
       </c>
       <c r="K27" t="n">
-        <v>64.6085333963192</v>
+        <v>64.60853339631929</v>
       </c>
       <c r="L27" t="n">
-        <v>86.87414633959266</v>
+        <v>86.87414633959276</v>
       </c>
       <c r="M27" t="n">
-        <v>101.3780311895418</v>
+        <v>101.3780311895419</v>
       </c>
       <c r="N27" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O27" t="n">
-        <v>95.19567349730092</v>
+        <v>95.19567349730103</v>
       </c>
       <c r="P27" t="n">
-        <v>76.40292058040976</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.07332905903453</v>
+        <v>51.07332905903459</v>
       </c>
       <c r="R27" t="n">
-        <v>24.84174155304058</v>
+        <v>24.84174155304061</v>
       </c>
       <c r="S27" t="n">
-        <v>7.431815165097961</v>
+        <v>7.431815165097971</v>
       </c>
       <c r="T27" t="n">
-        <v>1.612712665106264</v>
+        <v>1.612712665106266</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02632284001805656</v>
+        <v>0.02632284001805659</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3354364094104255</v>
+        <v>0.335436409410426</v>
       </c>
       <c r="H28" t="n">
-        <v>2.982334621849058</v>
+        <v>2.982334621849062</v>
       </c>
       <c r="I28" t="n">
-        <v>10.08748765754262</v>
+        <v>10.08748765754263</v>
       </c>
       <c r="J28" t="n">
-        <v>23.71535414531708</v>
+        <v>23.71535414531711</v>
       </c>
       <c r="K28" t="n">
-        <v>38.97161192968397</v>
+        <v>38.97161192968402</v>
       </c>
       <c r="L28" t="n">
-        <v>49.87024581361909</v>
+        <v>49.87024581361915</v>
       </c>
       <c r="M28" t="n">
-        <v>52.58118188603606</v>
+        <v>52.58118188603613</v>
       </c>
       <c r="N28" t="n">
-        <v>51.33091890550634</v>
+        <v>51.3309189055064</v>
       </c>
       <c r="O28" t="n">
-        <v>47.4124117592118</v>
+        <v>47.41241175921186</v>
       </c>
       <c r="P28" t="n">
-        <v>40.56950900723908</v>
+        <v>40.56950900723913</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.08822515526754</v>
+        <v>28.08822515526758</v>
       </c>
       <c r="R28" t="n">
-        <v>15.08244073585422</v>
+        <v>15.08244073585424</v>
       </c>
       <c r="S28" t="n">
-        <v>5.845741789452596</v>
+        <v>5.845741789452603</v>
       </c>
       <c r="T28" t="n">
-        <v>1.433228294753636</v>
+        <v>1.433228294753638</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01829653142238687</v>
+        <v>0.01829653142238689</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7477979341813045</v>
+        <v>0.7477979341813054</v>
       </c>
       <c r="H29" t="n">
-        <v>7.658385593434287</v>
+        <v>7.658385593434296</v>
       </c>
       <c r="I29" t="n">
-        <v>28.82947985752477</v>
+        <v>28.82947985752481</v>
       </c>
       <c r="J29" t="n">
-        <v>63.46841491622055</v>
+        <v>63.46841491622063</v>
       </c>
       <c r="K29" t="n">
-        <v>95.12270147011519</v>
+        <v>95.1227014701153</v>
       </c>
       <c r="L29" t="n">
-        <v>118.0081224983163</v>
+        <v>118.0081224983165</v>
       </c>
       <c r="M29" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103132</v>
       </c>
       <c r="N29" t="n">
-        <v>133.4314548908057</v>
+        <v>133.4314548908059</v>
       </c>
       <c r="O29" t="n">
-        <v>125.9955391827904</v>
+        <v>125.9955391827905</v>
       </c>
       <c r="P29" t="n">
-        <v>107.5342776826894</v>
+        <v>107.5342776826895</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.7537641648214</v>
+        <v>80.7537641648215</v>
       </c>
       <c r="R29" t="n">
-        <v>46.97386198301641</v>
+        <v>46.97386198301647</v>
       </c>
       <c r="S29" t="n">
-        <v>17.04044542515649</v>
+        <v>17.04044542515651</v>
       </c>
       <c r="T29" t="n">
-        <v>3.273485456878662</v>
+        <v>3.273485456878666</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05982383473450435</v>
+        <v>0.05982383473450442</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4001071682744596</v>
+        <v>0.4001071682744601</v>
       </c>
       <c r="H30" t="n">
-        <v>3.864192914650702</v>
+        <v>3.864192914650707</v>
       </c>
       <c r="I30" t="n">
-        <v>13.7756196094496</v>
+        <v>13.77561960944962</v>
       </c>
       <c r="J30" t="n">
-        <v>37.80135312193042</v>
+        <v>37.80135312193047</v>
       </c>
       <c r="K30" t="n">
-        <v>64.6085333963192</v>
+        <v>64.60853339631929</v>
       </c>
       <c r="L30" t="n">
-        <v>86.87414633959266</v>
+        <v>86.87414633959276</v>
       </c>
       <c r="M30" t="n">
-        <v>101.3780311895418</v>
+        <v>101.3780311895419</v>
       </c>
       <c r="N30" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O30" t="n">
-        <v>95.19567349730092</v>
+        <v>95.19567349730103</v>
       </c>
       <c r="P30" t="n">
-        <v>76.40292058040976</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.07332905903453</v>
+        <v>51.07332905903459</v>
       </c>
       <c r="R30" t="n">
-        <v>24.84174155304058</v>
+        <v>24.84174155304061</v>
       </c>
       <c r="S30" t="n">
-        <v>7.431815165097961</v>
+        <v>7.431815165097971</v>
       </c>
       <c r="T30" t="n">
-        <v>1.612712665106264</v>
+        <v>1.612712665106266</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02632284001805656</v>
+        <v>0.02632284001805659</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3354364094104255</v>
+        <v>0.335436409410426</v>
       </c>
       <c r="H31" t="n">
-        <v>2.982334621849058</v>
+        <v>2.982334621849062</v>
       </c>
       <c r="I31" t="n">
-        <v>10.08748765754262</v>
+        <v>10.08748765754263</v>
       </c>
       <c r="J31" t="n">
-        <v>23.71535414531708</v>
+        <v>23.71535414531711</v>
       </c>
       <c r="K31" t="n">
-        <v>38.97161192968397</v>
+        <v>38.97161192968402</v>
       </c>
       <c r="L31" t="n">
-        <v>49.87024581361909</v>
+        <v>49.87024581361915</v>
       </c>
       <c r="M31" t="n">
-        <v>52.58118188603606</v>
+        <v>52.58118188603613</v>
       </c>
       <c r="N31" t="n">
-        <v>51.33091890550634</v>
+        <v>51.3309189055064</v>
       </c>
       <c r="O31" t="n">
-        <v>47.4124117592118</v>
+        <v>47.41241175921186</v>
       </c>
       <c r="P31" t="n">
-        <v>40.56950900723908</v>
+        <v>40.56950900723913</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.08822515526754</v>
+        <v>28.08822515526758</v>
       </c>
       <c r="R31" t="n">
-        <v>15.08244073585422</v>
+        <v>15.08244073585424</v>
       </c>
       <c r="S31" t="n">
-        <v>5.845741789452596</v>
+        <v>5.845741789452603</v>
       </c>
       <c r="T31" t="n">
-        <v>1.433228294753636</v>
+        <v>1.433228294753638</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01829653142238687</v>
+        <v>0.01829653142238689</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7477979341813045</v>
+        <v>0.7477979341813054</v>
       </c>
       <c r="H32" t="n">
-        <v>7.658385593434287</v>
+        <v>7.658385593434296</v>
       </c>
       <c r="I32" t="n">
-        <v>28.82947985752477</v>
+        <v>28.82947985752481</v>
       </c>
       <c r="J32" t="n">
-        <v>63.46841491622055</v>
+        <v>63.46841491622063</v>
       </c>
       <c r="K32" t="n">
-        <v>95.12270147011519</v>
+        <v>95.1227014701153</v>
       </c>
       <c r="L32" t="n">
-        <v>118.0081224983163</v>
+        <v>118.0081224983165</v>
       </c>
       <c r="M32" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103132</v>
       </c>
       <c r="N32" t="n">
-        <v>133.4314548908057</v>
+        <v>133.4314548908059</v>
       </c>
       <c r="O32" t="n">
-        <v>125.9955391827904</v>
+        <v>125.9955391827905</v>
       </c>
       <c r="P32" t="n">
-        <v>107.5342776826894</v>
+        <v>107.5342776826895</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.7537641648214</v>
+        <v>80.7537641648215</v>
       </c>
       <c r="R32" t="n">
-        <v>46.97386198301641</v>
+        <v>46.97386198301647</v>
       </c>
       <c r="S32" t="n">
-        <v>17.04044542515649</v>
+        <v>17.04044542515651</v>
       </c>
       <c r="T32" t="n">
-        <v>3.273485456878662</v>
+        <v>3.273485456878666</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05982383473450435</v>
+        <v>0.05982383473450442</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4001071682744596</v>
+        <v>0.4001071682744601</v>
       </c>
       <c r="H33" t="n">
-        <v>3.864192914650702</v>
+        <v>3.864192914650707</v>
       </c>
       <c r="I33" t="n">
-        <v>13.7756196094496</v>
+        <v>13.77561960944962</v>
       </c>
       <c r="J33" t="n">
-        <v>37.80135312193042</v>
+        <v>37.80135312193047</v>
       </c>
       <c r="K33" t="n">
-        <v>64.6085333963192</v>
+        <v>64.60853339631929</v>
       </c>
       <c r="L33" t="n">
-        <v>86.87414633959266</v>
+        <v>86.87414633959276</v>
       </c>
       <c r="M33" t="n">
-        <v>101.3780311895418</v>
+        <v>101.3780311895419</v>
       </c>
       <c r="N33" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O33" t="n">
-        <v>95.19567349730092</v>
+        <v>95.19567349730103</v>
       </c>
       <c r="P33" t="n">
-        <v>76.40292058040976</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.07332905903453</v>
+        <v>51.07332905903459</v>
       </c>
       <c r="R33" t="n">
-        <v>24.84174155304058</v>
+        <v>24.84174155304061</v>
       </c>
       <c r="S33" t="n">
-        <v>7.431815165097961</v>
+        <v>7.431815165097971</v>
       </c>
       <c r="T33" t="n">
-        <v>1.612712665106264</v>
+        <v>1.612712665106266</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02632284001805656</v>
+        <v>0.02632284001805659</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3354364094104255</v>
+        <v>0.335436409410426</v>
       </c>
       <c r="H34" t="n">
-        <v>2.982334621849058</v>
+        <v>2.982334621849062</v>
       </c>
       <c r="I34" t="n">
-        <v>10.08748765754262</v>
+        <v>10.08748765754263</v>
       </c>
       <c r="J34" t="n">
-        <v>23.71535414531708</v>
+        <v>23.71535414531711</v>
       </c>
       <c r="K34" t="n">
-        <v>38.97161192968397</v>
+        <v>38.97161192968402</v>
       </c>
       <c r="L34" t="n">
-        <v>49.87024581361909</v>
+        <v>49.87024581361915</v>
       </c>
       <c r="M34" t="n">
-        <v>52.58118188603606</v>
+        <v>52.58118188603613</v>
       </c>
       <c r="N34" t="n">
-        <v>51.33091890550634</v>
+        <v>51.3309189055064</v>
       </c>
       <c r="O34" t="n">
-        <v>47.4124117592118</v>
+        <v>47.41241175921186</v>
       </c>
       <c r="P34" t="n">
-        <v>40.56950900723908</v>
+        <v>40.56950900723913</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.08822515526754</v>
+        <v>28.08822515526758</v>
       </c>
       <c r="R34" t="n">
-        <v>15.08244073585422</v>
+        <v>15.08244073585424</v>
       </c>
       <c r="S34" t="n">
-        <v>5.845741789452596</v>
+        <v>5.845741789452603</v>
       </c>
       <c r="T34" t="n">
-        <v>1.433228294753636</v>
+        <v>1.433228294753638</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01829653142238687</v>
+        <v>0.01829653142238689</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7477979341813045</v>
+        <v>0.7477979341813054</v>
       </c>
       <c r="H35" t="n">
-        <v>7.658385593434287</v>
+        <v>7.658385593434296</v>
       </c>
       <c r="I35" t="n">
-        <v>28.82947985752477</v>
+        <v>28.82947985752481</v>
       </c>
       <c r="J35" t="n">
-        <v>63.46841491622055</v>
+        <v>63.46841491622063</v>
       </c>
       <c r="K35" t="n">
-        <v>95.12270147011519</v>
+        <v>95.1227014701153</v>
       </c>
       <c r="L35" t="n">
-        <v>118.0081224983163</v>
+        <v>118.0081224983165</v>
       </c>
       <c r="M35" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103132</v>
       </c>
       <c r="N35" t="n">
-        <v>133.4314548908057</v>
+        <v>133.4314548908059</v>
       </c>
       <c r="O35" t="n">
-        <v>125.9955391827904</v>
+        <v>125.9955391827905</v>
       </c>
       <c r="P35" t="n">
-        <v>107.5342776826894</v>
+        <v>107.5342776826895</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.7537641648214</v>
+        <v>80.7537641648215</v>
       </c>
       <c r="R35" t="n">
-        <v>46.97386198301641</v>
+        <v>46.97386198301647</v>
       </c>
       <c r="S35" t="n">
-        <v>17.04044542515649</v>
+        <v>17.04044542515651</v>
       </c>
       <c r="T35" t="n">
-        <v>3.273485456878662</v>
+        <v>3.273485456878666</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05982383473450435</v>
+        <v>0.05982383473450442</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4001071682744596</v>
+        <v>0.4001071682744601</v>
       </c>
       <c r="H36" t="n">
-        <v>3.864192914650702</v>
+        <v>3.864192914650707</v>
       </c>
       <c r="I36" t="n">
-        <v>13.7756196094496</v>
+        <v>13.77561960944962</v>
       </c>
       <c r="J36" t="n">
-        <v>37.80135312193042</v>
+        <v>37.80135312193047</v>
       </c>
       <c r="K36" t="n">
-        <v>64.6085333963192</v>
+        <v>64.60853339631929</v>
       </c>
       <c r="L36" t="n">
-        <v>86.87414633959266</v>
+        <v>86.87414633959276</v>
       </c>
       <c r="M36" t="n">
-        <v>101.3780311895418</v>
+        <v>101.3780311895419</v>
       </c>
       <c r="N36" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O36" t="n">
-        <v>95.19567349730092</v>
+        <v>95.19567349730103</v>
       </c>
       <c r="P36" t="n">
-        <v>76.40292058040976</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.07332905903453</v>
+        <v>51.07332905903459</v>
       </c>
       <c r="R36" t="n">
-        <v>24.84174155304058</v>
+        <v>24.84174155304061</v>
       </c>
       <c r="S36" t="n">
-        <v>7.431815165097961</v>
+        <v>7.431815165097971</v>
       </c>
       <c r="T36" t="n">
-        <v>1.612712665106264</v>
+        <v>1.612712665106266</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02632284001805656</v>
+        <v>0.02632284001805659</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3354364094104255</v>
+        <v>0.335436409410426</v>
       </c>
       <c r="H37" t="n">
-        <v>2.982334621849058</v>
+        <v>2.982334621849062</v>
       </c>
       <c r="I37" t="n">
-        <v>10.08748765754262</v>
+        <v>10.08748765754263</v>
       </c>
       <c r="J37" t="n">
-        <v>23.71535414531708</v>
+        <v>23.71535414531711</v>
       </c>
       <c r="K37" t="n">
-        <v>38.97161192968397</v>
+        <v>38.97161192968402</v>
       </c>
       <c r="L37" t="n">
-        <v>49.87024581361909</v>
+        <v>49.87024581361915</v>
       </c>
       <c r="M37" t="n">
-        <v>52.58118188603606</v>
+        <v>52.58118188603613</v>
       </c>
       <c r="N37" t="n">
-        <v>51.33091890550634</v>
+        <v>51.3309189055064</v>
       </c>
       <c r="O37" t="n">
-        <v>47.4124117592118</v>
+        <v>47.41241175921186</v>
       </c>
       <c r="P37" t="n">
-        <v>40.56950900723908</v>
+        <v>40.56950900723913</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.08822515526754</v>
+        <v>28.08822515526758</v>
       </c>
       <c r="R37" t="n">
-        <v>15.08244073585422</v>
+        <v>15.08244073585424</v>
       </c>
       <c r="S37" t="n">
-        <v>5.845741789452596</v>
+        <v>5.845741789452603</v>
       </c>
       <c r="T37" t="n">
-        <v>1.433228294753636</v>
+        <v>1.433228294753638</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01829653142238687</v>
+        <v>0.01829653142238689</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7477979341813045</v>
+        <v>0.7477979341813054</v>
       </c>
       <c r="H38" t="n">
-        <v>7.658385593434287</v>
+        <v>7.658385593434296</v>
       </c>
       <c r="I38" t="n">
-        <v>28.82947985752477</v>
+        <v>28.82947985752481</v>
       </c>
       <c r="J38" t="n">
-        <v>63.46841491622055</v>
+        <v>63.46841491622063</v>
       </c>
       <c r="K38" t="n">
-        <v>95.12270147011519</v>
+        <v>95.1227014701153</v>
       </c>
       <c r="L38" t="n">
-        <v>118.0081224983163</v>
+        <v>118.0081224983165</v>
       </c>
       <c r="M38" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103132</v>
       </c>
       <c r="N38" t="n">
-        <v>133.4314548908057</v>
+        <v>133.4314548908059</v>
       </c>
       <c r="O38" t="n">
-        <v>125.9955391827904</v>
+        <v>125.9955391827905</v>
       </c>
       <c r="P38" t="n">
-        <v>107.5342776826894</v>
+        <v>107.5342776826895</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.7537641648214</v>
+        <v>80.7537641648215</v>
       </c>
       <c r="R38" t="n">
-        <v>46.97386198301641</v>
+        <v>46.97386198301647</v>
       </c>
       <c r="S38" t="n">
-        <v>17.04044542515649</v>
+        <v>17.04044542515651</v>
       </c>
       <c r="T38" t="n">
-        <v>3.273485456878662</v>
+        <v>3.273485456878666</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05982383473450435</v>
+        <v>0.05982383473450442</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4001071682744596</v>
+        <v>0.4001071682744601</v>
       </c>
       <c r="H39" t="n">
-        <v>3.864192914650702</v>
+        <v>3.864192914650707</v>
       </c>
       <c r="I39" t="n">
-        <v>13.7756196094496</v>
+        <v>13.77561960944962</v>
       </c>
       <c r="J39" t="n">
-        <v>37.80135312193042</v>
+        <v>37.80135312193047</v>
       </c>
       <c r="K39" t="n">
-        <v>64.6085333963192</v>
+        <v>64.60853339631929</v>
       </c>
       <c r="L39" t="n">
-        <v>86.87414633959266</v>
+        <v>86.87414633959276</v>
       </c>
       <c r="M39" t="n">
-        <v>101.3780311895418</v>
+        <v>101.3780311895419</v>
       </c>
       <c r="N39" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O39" t="n">
-        <v>95.19567349730092</v>
+        <v>95.19567349730103</v>
       </c>
       <c r="P39" t="n">
-        <v>76.40292058040976</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.07332905903453</v>
+        <v>51.07332905903459</v>
       </c>
       <c r="R39" t="n">
-        <v>24.84174155304058</v>
+        <v>24.84174155304061</v>
       </c>
       <c r="S39" t="n">
-        <v>7.431815165097961</v>
+        <v>7.431815165097971</v>
       </c>
       <c r="T39" t="n">
-        <v>1.612712665106264</v>
+        <v>1.612712665106266</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02632284001805656</v>
+        <v>0.02632284001805659</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3354364094104255</v>
+        <v>0.335436409410426</v>
       </c>
       <c r="H40" t="n">
-        <v>2.982334621849058</v>
+        <v>2.982334621849062</v>
       </c>
       <c r="I40" t="n">
-        <v>10.08748765754262</v>
+        <v>10.08748765754263</v>
       </c>
       <c r="J40" t="n">
-        <v>23.71535414531708</v>
+        <v>23.71535414531711</v>
       </c>
       <c r="K40" t="n">
-        <v>38.97161192968397</v>
+        <v>38.97161192968402</v>
       </c>
       <c r="L40" t="n">
-        <v>49.87024581361909</v>
+        <v>49.87024581361915</v>
       </c>
       <c r="M40" t="n">
-        <v>52.58118188603606</v>
+        <v>52.58118188603613</v>
       </c>
       <c r="N40" t="n">
-        <v>51.33091890550634</v>
+        <v>51.3309189055064</v>
       </c>
       <c r="O40" t="n">
-        <v>47.4124117592118</v>
+        <v>47.41241175921186</v>
       </c>
       <c r="P40" t="n">
-        <v>40.56950900723908</v>
+        <v>40.56950900723913</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.08822515526754</v>
+        <v>28.08822515526758</v>
       </c>
       <c r="R40" t="n">
-        <v>15.08244073585422</v>
+        <v>15.08244073585424</v>
       </c>
       <c r="S40" t="n">
-        <v>5.845741789452596</v>
+        <v>5.845741789452603</v>
       </c>
       <c r="T40" t="n">
-        <v>1.433228294753636</v>
+        <v>1.433228294753638</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01829653142238687</v>
+        <v>0.01829653142238689</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7477979341813045</v>
+        <v>0.7477979341813054</v>
       </c>
       <c r="H41" t="n">
-        <v>7.658385593434287</v>
+        <v>7.658385593434296</v>
       </c>
       <c r="I41" t="n">
-        <v>28.82947985752477</v>
+        <v>28.82947985752481</v>
       </c>
       <c r="J41" t="n">
-        <v>63.46841491622055</v>
+        <v>63.46841491622063</v>
       </c>
       <c r="K41" t="n">
-        <v>95.12270147011519</v>
+        <v>95.1227014701153</v>
       </c>
       <c r="L41" t="n">
-        <v>118.0081224983163</v>
+        <v>118.0081224983165</v>
       </c>
       <c r="M41" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103132</v>
       </c>
       <c r="N41" t="n">
-        <v>133.4314548908057</v>
+        <v>133.4314548908059</v>
       </c>
       <c r="O41" t="n">
-        <v>125.9955391827904</v>
+        <v>125.9955391827905</v>
       </c>
       <c r="P41" t="n">
-        <v>107.5342776826894</v>
+        <v>107.5342776826895</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.7537641648214</v>
+        <v>80.7537641648215</v>
       </c>
       <c r="R41" t="n">
-        <v>46.97386198301641</v>
+        <v>46.97386198301647</v>
       </c>
       <c r="S41" t="n">
-        <v>17.04044542515649</v>
+        <v>17.04044542515651</v>
       </c>
       <c r="T41" t="n">
-        <v>3.273485456878662</v>
+        <v>3.273485456878666</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05982383473450435</v>
+        <v>0.05982383473450442</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4001071682744596</v>
+        <v>0.4001071682744601</v>
       </c>
       <c r="H42" t="n">
-        <v>3.864192914650702</v>
+        <v>3.864192914650707</v>
       </c>
       <c r="I42" t="n">
-        <v>13.7756196094496</v>
+        <v>13.77561960944962</v>
       </c>
       <c r="J42" t="n">
-        <v>37.80135312193042</v>
+        <v>37.80135312193047</v>
       </c>
       <c r="K42" t="n">
-        <v>64.6085333963192</v>
+        <v>64.60853339631929</v>
       </c>
       <c r="L42" t="n">
-        <v>86.87414633959266</v>
+        <v>86.87414633959276</v>
       </c>
       <c r="M42" t="n">
-        <v>101.3780311895418</v>
+        <v>101.3780311895419</v>
       </c>
       <c r="N42" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O42" t="n">
-        <v>95.19567349730092</v>
+        <v>95.19567349730103</v>
       </c>
       <c r="P42" t="n">
-        <v>76.40292058040976</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.07332905903453</v>
+        <v>51.07332905903459</v>
       </c>
       <c r="R42" t="n">
-        <v>24.84174155304058</v>
+        <v>24.84174155304061</v>
       </c>
       <c r="S42" t="n">
-        <v>7.431815165097961</v>
+        <v>7.431815165097971</v>
       </c>
       <c r="T42" t="n">
-        <v>1.612712665106264</v>
+        <v>1.612712665106266</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02632284001805656</v>
+        <v>0.02632284001805659</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3354364094104255</v>
+        <v>0.335436409410426</v>
       </c>
       <c r="H43" t="n">
-        <v>2.982334621849058</v>
+        <v>2.982334621849062</v>
       </c>
       <c r="I43" t="n">
-        <v>10.08748765754262</v>
+        <v>10.08748765754263</v>
       </c>
       <c r="J43" t="n">
-        <v>23.71535414531708</v>
+        <v>23.71535414531711</v>
       </c>
       <c r="K43" t="n">
-        <v>38.97161192968397</v>
+        <v>38.97161192968402</v>
       </c>
       <c r="L43" t="n">
-        <v>49.87024581361909</v>
+        <v>49.87024581361915</v>
       </c>
       <c r="M43" t="n">
-        <v>52.58118188603606</v>
+        <v>52.58118188603613</v>
       </c>
       <c r="N43" t="n">
-        <v>51.33091890550634</v>
+        <v>51.3309189055064</v>
       </c>
       <c r="O43" t="n">
-        <v>47.4124117592118</v>
+        <v>47.41241175921186</v>
       </c>
       <c r="P43" t="n">
-        <v>40.56950900723908</v>
+        <v>40.56950900723913</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.08822515526754</v>
+        <v>28.08822515526758</v>
       </c>
       <c r="R43" t="n">
-        <v>15.08244073585422</v>
+        <v>15.08244073585424</v>
       </c>
       <c r="S43" t="n">
-        <v>5.845741789452596</v>
+        <v>5.845741789452603</v>
       </c>
       <c r="T43" t="n">
-        <v>1.433228294753636</v>
+        <v>1.433228294753638</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01829653142238687</v>
+        <v>0.01829653142238689</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7477979341813045</v>
+        <v>0.7477979341813054</v>
       </c>
       <c r="H44" t="n">
-        <v>7.658385593434287</v>
+        <v>7.658385593434296</v>
       </c>
       <c r="I44" t="n">
-        <v>28.82947985752477</v>
+        <v>28.82947985752481</v>
       </c>
       <c r="J44" t="n">
-        <v>63.46841491622055</v>
+        <v>63.46841491622063</v>
       </c>
       <c r="K44" t="n">
-        <v>95.12270147011519</v>
+        <v>95.1227014701153</v>
       </c>
       <c r="L44" t="n">
-        <v>118.0081224983163</v>
+        <v>118.0081224983165</v>
       </c>
       <c r="M44" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103132</v>
       </c>
       <c r="N44" t="n">
-        <v>133.4314548908057</v>
+        <v>133.4314548908059</v>
       </c>
       <c r="O44" t="n">
-        <v>125.9955391827904</v>
+        <v>125.9955391827905</v>
       </c>
       <c r="P44" t="n">
-        <v>107.5342776826894</v>
+        <v>107.5342776826895</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.7537641648214</v>
+        <v>80.7537641648215</v>
       </c>
       <c r="R44" t="n">
-        <v>46.97386198301641</v>
+        <v>46.97386198301647</v>
       </c>
       <c r="S44" t="n">
-        <v>17.04044542515649</v>
+        <v>17.04044542515651</v>
       </c>
       <c r="T44" t="n">
-        <v>3.273485456878662</v>
+        <v>3.273485456878666</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05982383473450435</v>
+        <v>0.05982383473450442</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4001071682744596</v>
+        <v>0.4001071682744601</v>
       </c>
       <c r="H45" t="n">
-        <v>3.864192914650702</v>
+        <v>3.864192914650707</v>
       </c>
       <c r="I45" t="n">
-        <v>13.7756196094496</v>
+        <v>13.77561960944962</v>
       </c>
       <c r="J45" t="n">
-        <v>37.80135312193042</v>
+        <v>37.80135312193047</v>
       </c>
       <c r="K45" t="n">
-        <v>64.6085333963192</v>
+        <v>64.60853339631929</v>
       </c>
       <c r="L45" t="n">
-        <v>86.87414633959266</v>
+        <v>86.87414633959276</v>
       </c>
       <c r="M45" t="n">
-        <v>101.3780311895418</v>
+        <v>101.3780311895419</v>
       </c>
       <c r="N45" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O45" t="n">
-        <v>95.19567349730092</v>
+        <v>95.19567349730103</v>
       </c>
       <c r="P45" t="n">
-        <v>76.40292058040976</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.07332905903453</v>
+        <v>51.07332905903459</v>
       </c>
       <c r="R45" t="n">
-        <v>24.84174155304058</v>
+        <v>24.84174155304061</v>
       </c>
       <c r="S45" t="n">
-        <v>7.431815165097961</v>
+        <v>7.431815165097971</v>
       </c>
       <c r="T45" t="n">
-        <v>1.612712665106264</v>
+        <v>1.612712665106266</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02632284001805656</v>
+        <v>0.02632284001805659</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3354364094104255</v>
+        <v>0.335436409410426</v>
       </c>
       <c r="H46" t="n">
-        <v>2.982334621849058</v>
+        <v>2.982334621849062</v>
       </c>
       <c r="I46" t="n">
-        <v>10.08748765754262</v>
+        <v>10.08748765754263</v>
       </c>
       <c r="J46" t="n">
-        <v>23.71535414531708</v>
+        <v>23.71535414531711</v>
       </c>
       <c r="K46" t="n">
-        <v>38.97161192968397</v>
+        <v>38.97161192968402</v>
       </c>
       <c r="L46" t="n">
-        <v>49.87024581361909</v>
+        <v>49.87024581361915</v>
       </c>
       <c r="M46" t="n">
-        <v>52.58118188603606</v>
+        <v>52.58118188603613</v>
       </c>
       <c r="N46" t="n">
-        <v>51.33091890550634</v>
+        <v>51.3309189055064</v>
       </c>
       <c r="O46" t="n">
-        <v>47.4124117592118</v>
+        <v>47.41241175921186</v>
       </c>
       <c r="P46" t="n">
-        <v>40.56950900723908</v>
+        <v>40.56950900723913</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.08822515526754</v>
+        <v>28.08822515526758</v>
       </c>
       <c r="R46" t="n">
-        <v>15.08244073585422</v>
+        <v>15.08244073585424</v>
       </c>
       <c r="S46" t="n">
-        <v>5.845741789452596</v>
+        <v>5.845741789452603</v>
       </c>
       <c r="T46" t="n">
-        <v>1.433228294753636</v>
+        <v>1.433228294753638</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01829653142238687</v>
+        <v>0.01829653142238689</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M2" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="N2" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q2" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35178,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35251,16 +35251,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,7 +35415,7 @@
         <v>668.717214551055</v>
       </c>
       <c r="L11" t="n">
-        <v>139.5538236303737</v>
+        <v>1.688989405824032</v>
       </c>
       <c r="M11" t="n">
         <v>1.879326147397251</v>
@@ -35424,7 +35424,7 @@
         <v>1.909735609237032</v>
       </c>
       <c r="O11" t="n">
-        <v>1.803309182076418</v>
+        <v>139.6681434066256</v>
       </c>
       <c r="P11" t="n">
         <v>668.7172145510549</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.52410592632187</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J12" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K12" t="n">
-        <v>668.717214551055</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L12" t="n">
-        <v>531.3871622959782</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M12" t="n">
-        <v>1.450971484313413</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N12" t="n">
-        <v>1.489374382002779</v>
+        <v>668.7172145510549</v>
       </c>
       <c r="O12" t="n">
         <v>1.362486586628847</v>
@@ -35509,7 +35509,7 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7309862225974939</v>
+        <v>531.4394294183403</v>
       </c>
       <c r="R12" t="n">
         <v>118.7118885465111</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401841</v>
       </c>
       <c r="K13" t="n">
-        <v>278.0915730817343</v>
+        <v>278.0915730817341</v>
       </c>
       <c r="L13" t="n">
         <v>423.1479911205233</v>
@@ -35582,7 +35582,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O13" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P13" t="n">
         <v>351.5977150790518</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>440.5595901422736</v>
+        <v>440.5595901422735</v>
       </c>
       <c r="K14" t="n">
-        <v>668.717214551055</v>
+        <v>668.7172145510549</v>
       </c>
       <c r="L14" t="n">
-        <v>139.5538236303737</v>
+        <v>1.688989405823804</v>
       </c>
       <c r="M14" t="n">
-        <v>1.879326147397251</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N14" t="n">
-        <v>1.909735609237032</v>
+        <v>1.909735609236805</v>
       </c>
       <c r="O14" t="n">
-        <v>1.803309182076418</v>
+        <v>139.6681434066265</v>
       </c>
       <c r="P14" t="n">
         <v>668.7172145510549</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.52410592632187</v>
+        <v>26.52410592632184</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598352</v>
       </c>
       <c r="K15" t="n">
-        <v>668.7172145510551</v>
+        <v>668.7172145510549</v>
       </c>
       <c r="L15" t="n">
-        <v>668.7172145510551</v>
+        <v>531.3871622959787</v>
       </c>
       <c r="M15" t="n">
-        <v>191.9576111142994</v>
+        <v>1.450971484313186</v>
       </c>
       <c r="N15" t="n">
         <v>1.489374382002779</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401838</v>
       </c>
       <c r="K16" t="n">
-        <v>278.0915730817343</v>
+        <v>278.0915730817342</v>
       </c>
       <c r="L16" t="n">
-        <v>423.1479911205234</v>
+        <v>423.1479911205233</v>
       </c>
       <c r="M16" t="n">
         <v>464.8776857071369</v>
       </c>
       <c r="N16" t="n">
-        <v>447.4607367688432</v>
+        <v>447.4607367688429</v>
       </c>
       <c r="O16" t="n">
         <v>424.5869219523504</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>28.41685837839337</v>
+        <v>28.41685837839341</v>
       </c>
       <c r="J17" t="n">
-        <v>503.1196143636124</v>
+        <v>503.1196143636125</v>
       </c>
       <c r="K17" t="n">
-        <v>504.1066222636526</v>
+        <v>95.12270147011532</v>
       </c>
       <c r="L17" t="n">
         <v>118.0081224983164</v>
       </c>
       <c r="M17" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103132</v>
       </c>
       <c r="N17" t="n">
-        <v>133.4314548908058</v>
+        <v>133.4314548908059</v>
       </c>
       <c r="O17" t="n">
-        <v>125.9955391827903</v>
+        <v>364.116768306573</v>
       </c>
       <c r="P17" t="n">
-        <v>751.4983862037402</v>
+        <v>751.4983862037404</v>
       </c>
       <c r="Q17" t="n">
         <v>632.7727398805737</v>
       </c>
       <c r="R17" t="n">
-        <v>46.97386198301638</v>
+        <v>217.8365536527708</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>40.10256219577038</v>
+        <v>40.10256219577043</v>
       </c>
       <c r="J18" t="n">
-        <v>357.3388213319816</v>
+        <v>365.6380450069934</v>
       </c>
       <c r="K18" t="n">
-        <v>64.60853339631922</v>
+        <v>64.60853339631933</v>
       </c>
       <c r="L18" t="n">
         <v>86.8741463395927</v>
       </c>
       <c r="M18" t="n">
-        <v>101.3780311895417</v>
+        <v>101.378031189542</v>
       </c>
       <c r="N18" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O18" t="n">
-        <v>95.19567349730096</v>
+        <v>95.19567349730107</v>
       </c>
       <c r="P18" t="n">
-        <v>76.40292058040973</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q18" t="n">
-        <v>597.2742771722423</v>
+        <v>588.9750534972297</v>
       </c>
       <c r="R18" t="n">
         <v>143.1980830624748</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>111.1695815843977</v>
+        <v>111.1695815843978</v>
       </c>
       <c r="K19" t="n">
-        <v>316.5054044257805</v>
+        <v>316.5054044257804</v>
       </c>
       <c r="L19" t="n">
         <v>472.3044698216606</v>
       </c>
       <c r="M19" t="n">
-        <v>516.7063002505949</v>
+        <v>516.7063002505948</v>
       </c>
       <c r="N19" t="n">
-        <v>498.056982701107</v>
+        <v>498.0569827011075</v>
       </c>
       <c r="O19" t="n">
-        <v>471.3207443105064</v>
+        <v>471.3207443105061</v>
       </c>
       <c r="P19" t="n">
         <v>391.5865736237461</v>
       </c>
       <c r="Q19" t="n">
-        <v>197.979916937421</v>
+        <v>197.9799169374214</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>28.41685837839337</v>
+        <v>28.41685837839341</v>
       </c>
       <c r="J20" t="n">
-        <v>503.1196143636124</v>
+        <v>503.1196143636125</v>
       </c>
       <c r="K20" t="n">
-        <v>333.2439305938983</v>
+        <v>751.4983862037404</v>
       </c>
       <c r="L20" t="n">
-        <v>118.0081224983163</v>
+        <v>118.0081224983164</v>
       </c>
       <c r="M20" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103133</v>
       </c>
       <c r="N20" t="n">
-        <v>133.4314548908058</v>
+        <v>133.431454890806</v>
       </c>
       <c r="O20" t="n">
         <v>125.9955391827905</v>
       </c>
       <c r="P20" t="n">
-        <v>751.4983862037404</v>
+        <v>504.1066222636521</v>
       </c>
       <c r="Q20" t="n">
         <v>632.7727398805737</v>
       </c>
       <c r="R20" t="n">
-        <v>217.8365536527708</v>
+        <v>46.97386198301638</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>40.1025621957704</v>
+        <v>40.10256219577043</v>
       </c>
       <c r="J21" t="n">
-        <v>357.3388213319819</v>
+        <v>357.3388213319809</v>
       </c>
       <c r="K21" t="n">
-        <v>64.60853339631922</v>
+        <v>64.60853339631927</v>
       </c>
       <c r="L21" t="n">
-        <v>86.8741463395927</v>
+        <v>86.87414633959281</v>
       </c>
       <c r="M21" t="n">
-        <v>101.3780311895417</v>
+        <v>101.378031189542</v>
       </c>
       <c r="N21" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O21" t="n">
-        <v>95.19567349730096</v>
+        <v>95.19567349730107</v>
       </c>
       <c r="P21" t="n">
-        <v>76.40292058040973</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q21" t="n">
         <v>597.2742771722423</v>
       </c>
       <c r="R21" t="n">
-        <v>143.1980830624746</v>
+        <v>143.1980830624748</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>111.1695815843978</v>
       </c>
       <c r="K22" t="n">
-        <v>316.5054044257805</v>
+        <v>316.5054044257806</v>
       </c>
       <c r="L22" t="n">
         <v>472.3044698216606</v>
       </c>
       <c r="M22" t="n">
-        <v>516.7063002505947</v>
+        <v>516.7063002505948</v>
       </c>
       <c r="N22" t="n">
         <v>498.056982701107</v>
       </c>
       <c r="O22" t="n">
-        <v>471.3207443105066</v>
+        <v>471.3207443105064</v>
       </c>
       <c r="P22" t="n">
         <v>391.5865736237461</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>28.41685837839337</v>
+        <v>28.41685837839341</v>
       </c>
       <c r="J23" t="n">
         <v>503.1196143636124</v>
       </c>
       <c r="K23" t="n">
-        <v>937.9007741551434</v>
+        <v>937.9007741551437</v>
       </c>
       <c r="L23" t="n">
         <v>118.0081224983164</v>
       </c>
       <c r="M23" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103133</v>
       </c>
       <c r="N23" t="n">
-        <v>401.961471246246</v>
+        <v>401.9614712462453</v>
       </c>
       <c r="O23" t="n">
         <v>1116.076010465928</v>
       </c>
       <c r="P23" t="n">
-        <v>944.2109189285438</v>
+        <v>944.2109189285443</v>
       </c>
       <c r="Q23" t="n">
         <v>632.7727398805737</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>40.10256219577039</v>
+        <v>40.10256219577043</v>
       </c>
       <c r="J24" t="n">
-        <v>357.3388213319816</v>
+        <v>365.6380450069935</v>
       </c>
       <c r="K24" t="n">
-        <v>64.60853339631922</v>
+        <v>64.60853339631933</v>
       </c>
       <c r="L24" t="n">
         <v>86.8741463395927</v>
       </c>
       <c r="M24" t="n">
-        <v>101.3780311895417</v>
+        <v>101.378031189542</v>
       </c>
       <c r="N24" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O24" t="n">
         <v>95.19567349730107</v>
       </c>
       <c r="P24" t="n">
-        <v>76.40292058040973</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q24" t="n">
-        <v>597.2742771722421</v>
+        <v>588.9750534972295</v>
       </c>
       <c r="R24" t="n">
-        <v>143.1980830624746</v>
+        <v>143.1980830624748</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36527,10 +36527,10 @@
         <v>516.7063002505947</v>
       </c>
       <c r="N25" t="n">
-        <v>498.0569827011068</v>
+        <v>498.056982701107</v>
       </c>
       <c r="O25" t="n">
-        <v>471.3207443105061</v>
+        <v>471.3207443105064</v>
       </c>
       <c r="P25" t="n">
         <v>391.5865736237461</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>28.41685837839337</v>
+        <v>28.41685837839341</v>
       </c>
       <c r="J26" t="n">
         <v>503.1196143636124</v>
       </c>
       <c r="K26" t="n">
-        <v>937.9007741551434</v>
+        <v>937.9007741551437</v>
       </c>
       <c r="L26" t="n">
-        <v>386.5381388537578</v>
+        <v>118.0081224983164</v>
       </c>
       <c r="M26" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103133</v>
       </c>
       <c r="N26" t="n">
-        <v>133.4314548908055</v>
+        <v>401.9614712462453</v>
       </c>
       <c r="O26" t="n">
         <v>1116.076010465928</v>
       </c>
       <c r="P26" t="n">
-        <v>944.2109189285438</v>
+        <v>944.2109189285443</v>
       </c>
       <c r="Q26" t="n">
         <v>632.7727398805737</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>40.1025621957704</v>
+        <v>40.10256219577043</v>
       </c>
       <c r="J27" t="n">
-        <v>357.3388213319816</v>
+        <v>365.6380450069935</v>
       </c>
       <c r="K27" t="n">
-        <v>64.60853339631922</v>
+        <v>64.60853339631933</v>
       </c>
       <c r="L27" t="n">
         <v>86.8741463395927</v>
       </c>
       <c r="M27" t="n">
-        <v>101.3780311895417</v>
+        <v>101.378031189542</v>
       </c>
       <c r="N27" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O27" t="n">
         <v>95.19567349730107</v>
       </c>
       <c r="P27" t="n">
-        <v>76.40292058040973</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q27" t="n">
-        <v>597.2742771722421</v>
+        <v>588.9750534972295</v>
       </c>
       <c r="R27" t="n">
-        <v>143.1980830624746</v>
+        <v>143.1980830624748</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36764,10 +36764,10 @@
         <v>516.7063002505947</v>
       </c>
       <c r="N28" t="n">
-        <v>498.0569827011068</v>
+        <v>498.056982701107</v>
       </c>
       <c r="O28" t="n">
-        <v>471.3207443105061</v>
+        <v>471.3207443105064</v>
       </c>
       <c r="P28" t="n">
         <v>391.5865736237461</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>28.41685837839337</v>
+        <v>28.41685837839341</v>
       </c>
       <c r="J29" t="n">
         <v>503.1196143636124</v>
       </c>
       <c r="K29" t="n">
-        <v>937.9007741551434</v>
+        <v>937.9007741551437</v>
       </c>
       <c r="L29" t="n">
-        <v>1203.927280329488</v>
+        <v>118.0081224983164</v>
       </c>
       <c r="M29" t="n">
-        <v>131.3067740103129</v>
+        <v>131.3067740103133</v>
       </c>
       <c r="N29" t="n">
-        <v>133.4314548908055</v>
+        <v>401.9614712462453</v>
       </c>
       <c r="O29" t="n">
-        <v>298.6868689901985</v>
+        <v>1116.076010465928</v>
       </c>
       <c r="P29" t="n">
-        <v>944.2109189285438</v>
+        <v>944.2109189285443</v>
       </c>
       <c r="Q29" t="n">
         <v>632.7727398805737</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>40.1025621957704</v>
+        <v>40.10256219577043</v>
       </c>
       <c r="J30" t="n">
-        <v>357.3388213319816</v>
+        <v>365.6380450069935</v>
       </c>
       <c r="K30" t="n">
-        <v>64.60853339631922</v>
+        <v>64.60853339631933</v>
       </c>
       <c r="L30" t="n">
         <v>86.8741463395927</v>
       </c>
       <c r="M30" t="n">
-        <v>101.3780311895417</v>
+        <v>101.378031189542</v>
       </c>
       <c r="N30" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O30" t="n">
         <v>95.19567349730107</v>
       </c>
       <c r="P30" t="n">
-        <v>76.40292058040973</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q30" t="n">
-        <v>597.2742771722421</v>
+        <v>588.9750534972295</v>
       </c>
       <c r="R30" t="n">
-        <v>143.1980830624746</v>
+        <v>143.1980830624748</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37001,10 +37001,10 @@
         <v>516.7063002505947</v>
       </c>
       <c r="N31" t="n">
-        <v>498.0569827011068</v>
+        <v>498.056982701107</v>
       </c>
       <c r="O31" t="n">
-        <v>471.3207443105061</v>
+        <v>471.3207443105064</v>
       </c>
       <c r="P31" t="n">
         <v>391.5865736237461</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>28.41685837839337</v>
+        <v>28.41685837839341</v>
       </c>
       <c r="J32" t="n">
-        <v>63.46841491622055</v>
+        <v>503.1196143636124</v>
       </c>
       <c r="K32" t="n">
-        <v>731.0255237965598</v>
+        <v>937.9007741551437</v>
       </c>
       <c r="L32" t="n">
         <v>1203.927280329488</v>
       </c>
       <c r="M32" t="n">
-        <v>131.3067740103129</v>
+        <v>131.3067740103133</v>
       </c>
       <c r="N32" t="n">
-        <v>133.4314548908055</v>
+        <v>133.431454890806</v>
       </c>
       <c r="O32" t="n">
-        <v>1116.076010465928</v>
+        <v>1116.076010465929</v>
       </c>
       <c r="P32" t="n">
-        <v>944.2109189285438</v>
+        <v>297.684469122566</v>
       </c>
       <c r="Q32" t="n">
         <v>632.7727398805737</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>40.1025621957704</v>
+        <v>40.10256219577043</v>
       </c>
       <c r="J33" t="n">
-        <v>357.3388213319816</v>
+        <v>365.6380450069935</v>
       </c>
       <c r="K33" t="n">
-        <v>64.60853339631922</v>
+        <v>64.60853339631933</v>
       </c>
       <c r="L33" t="n">
         <v>86.8741463395927</v>
       </c>
       <c r="M33" t="n">
-        <v>101.3780311895417</v>
+        <v>101.378031189542</v>
       </c>
       <c r="N33" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O33" t="n">
         <v>95.19567349730107</v>
       </c>
       <c r="P33" t="n">
-        <v>76.40292058040973</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q33" t="n">
-        <v>597.2742771722421</v>
+        <v>588.9750534972295</v>
       </c>
       <c r="R33" t="n">
-        <v>143.1980830624746</v>
+        <v>143.1980830624748</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>28.41685837839337</v>
+        <v>28.41685837839341</v>
       </c>
       <c r="J35" t="n">
-        <v>63.46841491622055</v>
+        <v>503.1196143636124</v>
       </c>
       <c r="K35" t="n">
-        <v>937.9007741551434</v>
+        <v>937.9007741551436</v>
       </c>
       <c r="L35" t="n">
-        <v>1203.927280329487</v>
+        <v>118.0081224983164</v>
       </c>
       <c r="M35" t="n">
-        <v>131.3067740103129</v>
+        <v>131.3067740103131</v>
       </c>
       <c r="N35" t="n">
-        <v>133.4314548908055</v>
+        <v>397.2020054509567</v>
       </c>
       <c r="O35" t="n">
         <v>1116.076010465928</v>
       </c>
       <c r="P35" t="n">
-        <v>732.5762027746705</v>
+        <v>944.2109189285443</v>
       </c>
       <c r="Q35" t="n">
         <v>632.7727398805737</v>
       </c>
       <c r="R35" t="n">
-        <v>46.97386198301683</v>
+        <v>217.8365536527708</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>40.10256219577039</v>
+        <v>40.10256219577043</v>
       </c>
       <c r="J36" t="n">
         <v>365.6380450069934</v>
       </c>
       <c r="K36" t="n">
-        <v>64.60853339631922</v>
+        <v>602.5102578345143</v>
       </c>
       <c r="L36" t="n">
         <v>86.8741463395927</v>
       </c>
       <c r="M36" t="n">
-        <v>101.3780311895417</v>
+        <v>101.3780311895418</v>
       </c>
       <c r="N36" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153826</v>
       </c>
       <c r="O36" t="n">
         <v>95.19567349730096</v>
       </c>
       <c r="P36" t="n">
-        <v>76.40292058040973</v>
+        <v>76.40292058040995</v>
       </c>
       <c r="Q36" t="n">
-        <v>588.9750534972306</v>
+        <v>51.07332905903468</v>
       </c>
       <c r="R36" t="n">
-        <v>143.1980830624746</v>
+        <v>143.1980830624748</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>111.1695815843977</v>
+        <v>111.1695815843978</v>
       </c>
       <c r="K37" t="n">
-        <v>316.5054044257805</v>
+        <v>316.5054044257806</v>
       </c>
       <c r="L37" t="n">
         <v>472.3044698216606</v>
       </c>
       <c r="M37" t="n">
-        <v>516.7063002505948</v>
+        <v>516.7063002505947</v>
       </c>
       <c r="N37" t="n">
-        <v>498.0569827011068</v>
+        <v>498.056982701107</v>
       </c>
       <c r="O37" t="n">
-        <v>471.3207443105061</v>
+        <v>471.3207443105068</v>
       </c>
       <c r="P37" t="n">
         <v>391.5865736237461</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>28.41685837839337</v>
+        <v>28.41685837839341</v>
       </c>
       <c r="J38" t="n">
-        <v>503.1196143636125</v>
+        <v>63.46841491622064</v>
       </c>
       <c r="K38" t="n">
-        <v>937.9007741551434</v>
+        <v>937.9007741551436</v>
       </c>
       <c r="L38" t="n">
-        <v>118.0081224983164</v>
+        <v>1203.927280329487</v>
       </c>
       <c r="M38" t="n">
-        <v>131.3067740103131</v>
+        <v>131.3067740103133</v>
       </c>
       <c r="N38" t="n">
-        <v>397.2020054509569</v>
+        <v>133.431454890806</v>
       </c>
       <c r="O38" t="n">
         <v>1116.076010465928</v>
       </c>
       <c r="P38" t="n">
-        <v>944.2109189285438</v>
+        <v>732.5762027746696</v>
       </c>
       <c r="Q38" t="n">
         <v>632.7727398805737</v>
       </c>
       <c r="R38" t="n">
-        <v>217.8365536527708</v>
+        <v>46.97386198301683</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>40.10256219577039</v>
+        <v>40.10256219577043</v>
       </c>
       <c r="J39" t="n">
         <v>365.6380450069934</v>
       </c>
       <c r="K39" t="n">
-        <v>64.60853339631922</v>
+        <v>64.60853339631933</v>
       </c>
       <c r="L39" t="n">
-        <v>86.8741463395927</v>
+        <v>86.87414633959281</v>
       </c>
       <c r="M39" t="n">
-        <v>101.3780311895417</v>
+        <v>101.378031189542</v>
       </c>
       <c r="N39" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O39" t="n">
-        <v>95.19567349730096</v>
+        <v>95.19567349730107</v>
       </c>
       <c r="P39" t="n">
-        <v>76.40292058040973</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q39" t="n">
-        <v>588.9750534972306</v>
+        <v>588.9750534972295</v>
       </c>
       <c r="R39" t="n">
-        <v>143.1980830624746</v>
+        <v>143.1980830624748</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>111.1695815843977</v>
+        <v>111.1695815843978</v>
       </c>
       <c r="K40" t="n">
-        <v>316.5054044257805</v>
+        <v>316.5054044257806</v>
       </c>
       <c r="L40" t="n">
         <v>472.3044698216606</v>
       </c>
       <c r="M40" t="n">
-        <v>516.7063002505948</v>
+        <v>516.7063002505947</v>
       </c>
       <c r="N40" t="n">
-        <v>498.0569827011068</v>
+        <v>498.056982701107</v>
       </c>
       <c r="O40" t="n">
-        <v>471.3207443105061</v>
+        <v>471.3207443105068</v>
       </c>
       <c r="P40" t="n">
         <v>391.5865736237461</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>28.41685837839337</v>
+        <v>28.41685837839341</v>
       </c>
       <c r="J41" t="n">
-        <v>503.1196143636124</v>
+        <v>503.1196143636125</v>
       </c>
       <c r="K41" t="n">
-        <v>873.8913319087023</v>
+        <v>937.9007741551436</v>
       </c>
       <c r="L41" t="n">
         <v>118.0081224983164</v>
@@ -37791,13 +37791,13 @@
         <v>131.3067740103131</v>
       </c>
       <c r="N41" t="n">
-        <v>133.4314548908058</v>
+        <v>133.431454890806</v>
       </c>
       <c r="O41" t="n">
-        <v>1116.076010465928</v>
+        <v>1052.066568219486</v>
       </c>
       <c r="P41" t="n">
-        <v>944.2109189285438</v>
+        <v>944.2109189285443</v>
       </c>
       <c r="Q41" t="n">
         <v>632.7727398805737</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13.77561960944959</v>
+        <v>40.10256219577042</v>
       </c>
       <c r="J42" t="n">
-        <v>37.80135312193042</v>
+        <v>365.6380450069935</v>
       </c>
       <c r="K42" t="n">
-        <v>752.2181496290236</v>
+        <v>602.5102578345144</v>
       </c>
       <c r="L42" t="n">
         <v>86.8741463395927</v>
       </c>
       <c r="M42" t="n">
-        <v>101.3780311895417</v>
+        <v>101.3780311895418</v>
       </c>
       <c r="N42" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153826</v>
       </c>
       <c r="O42" t="n">
         <v>95.19567349730096</v>
       </c>
       <c r="P42" t="n">
-        <v>76.40292058040973</v>
+        <v>76.40292058040995</v>
       </c>
       <c r="Q42" t="n">
-        <v>373.8854132453441</v>
+        <v>51.07332905903468</v>
       </c>
       <c r="R42" t="n">
-        <v>24.84174155304049</v>
+        <v>143.1980830624748</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>111.1695815843977</v>
+        <v>111.1695815843978</v>
       </c>
       <c r="K43" t="n">
         <v>316.5054044257805</v>
@@ -37949,13 +37949,13 @@
         <v>516.7063002505948</v>
       </c>
       <c r="N43" t="n">
-        <v>498.0569827011068</v>
+        <v>498.056982701107</v>
       </c>
       <c r="O43" t="n">
-        <v>471.3207443105061</v>
+        <v>471.3207443105064</v>
       </c>
       <c r="P43" t="n">
-        <v>391.5865736237461</v>
+        <v>391.5865736237456</v>
       </c>
       <c r="Q43" t="n">
         <v>197.9799169374214</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>28.41685837839337</v>
+        <v>28.41685837839341</v>
       </c>
       <c r="J44" t="n">
-        <v>503.1196143636124</v>
+        <v>63.46841491622064</v>
       </c>
       <c r="K44" t="n">
-        <v>795.2249065094975</v>
+        <v>937.9007741551436</v>
       </c>
       <c r="L44" t="n">
         <v>1186.755019180658</v>
       </c>
       <c r="M44" t="n">
-        <v>131.3067740103129</v>
+        <v>826.8972514905281</v>
       </c>
       <c r="N44" t="n">
-        <v>133.4314548908055</v>
+        <v>133.431454890806</v>
       </c>
       <c r="O44" t="n">
-        <v>125.9955391827903</v>
+        <v>1116.076010465928</v>
       </c>
       <c r="P44" t="n">
-        <v>944.2109189285438</v>
+        <v>107.5342776826892</v>
       </c>
       <c r="Q44" t="n">
-        <v>632.7727398805737</v>
+        <v>80.7537641648214</v>
       </c>
       <c r="R44" t="n">
         <v>217.8365536527708</v>
@@ -38095,28 +38095,28 @@
         <v>40.10256219577042</v>
       </c>
       <c r="J45" t="n">
-        <v>357.3388213319816</v>
+        <v>365.6380450069935</v>
       </c>
       <c r="K45" t="n">
-        <v>64.60853339631922</v>
+        <v>64.60853339631933</v>
       </c>
       <c r="L45" t="n">
         <v>86.8741463395927</v>
       </c>
       <c r="M45" t="n">
-        <v>101.3780311895417</v>
+        <v>101.378031189542</v>
       </c>
       <c r="N45" t="n">
-        <v>104.0612060153824</v>
+        <v>104.0612060153825</v>
       </c>
       <c r="O45" t="n">
-        <v>95.19567349730096</v>
+        <v>95.19567349730107</v>
       </c>
       <c r="P45" t="n">
-        <v>76.40292058040973</v>
+        <v>76.40292058040984</v>
       </c>
       <c r="Q45" t="n">
-        <v>597.2742771722423</v>
+        <v>588.9750534972297</v>
       </c>
       <c r="R45" t="n">
         <v>143.1980830624748</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>111.1695815843977</v>
+        <v>111.1695815843978</v>
       </c>
       <c r="K46" t="n">
-        <v>316.5054044257806</v>
+        <v>316.5054044257805</v>
       </c>
       <c r="L46" t="n">
         <v>472.3044698216607</v>
@@ -38186,13 +38186,13 @@
         <v>516.7063002505948</v>
       </c>
       <c r="N46" t="n">
-        <v>498.0569827011068</v>
+        <v>498.056982701107</v>
       </c>
       <c r="O46" t="n">
-        <v>471.3207443105061</v>
+        <v>471.3207443105064</v>
       </c>
       <c r="P46" t="n">
-        <v>391.5865736237461</v>
+        <v>391.5865736237456</v>
       </c>
       <c r="Q46" t="n">
         <v>197.9799169374214</v>
